--- a/static/output/Excel/compareLR1-sol3.xlsx
+++ b/static/output/Excel/compareLR1-sol3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adolphus\Documents\GitHub\ACTL20004-ACTL90021-Tutorials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0644B1-10A9-4B5A-B054-517675EEB9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F4556B-52C8-5049-9234-4B13E7340D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24580" yWindow="500" windowWidth="25460" windowHeight="23220" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,44 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={7436AD1E-F8F7-6143-BDDF-508F80EBB7AF}</author>
+  </authors>
+  <commentList>
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{7436AD1E-F8F7-6143-BDDF-508F80EBB7AF}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Manual adjustment to match actual data</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={718C5117-7904-D94A-BEB0-705E7146779B}</author>
+  </authors>
+  <commentList>
+    <comment ref="O6" authorId="0" shapeId="0" xr:uid="{718C5117-7904-D94A-BEB0-705E7146779B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Here we keep the project which is higher than actual known</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={2A29BD34-3948-46CE-B809-C64F8F1DBC24}</author>
+    <author>tc={397F5E1F-6928-5E46-8A48-53EBC825C2D4}</author>
   </authors>
   <commentList>
     <comment ref="N4" authorId="0" shapeId="0" xr:uid="{2A29BD34-3948-46CE-B809-C64F8F1DBC24}">
@@ -59,6 +96,32 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Here, the projection is less than the actual claims we had. To be conservative, we choose the larger one.</t>
+      </text>
+    </comment>
+    <comment ref="N6" authorId="1" shapeId="0" xr:uid="{397F5E1F-6928-5E46-8A48-53EBC825C2D4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Same comment</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={774E2D3B-90A9-4348-BC0E-B011EF1E67B5}</author>
+  </authors>
+  <commentList>
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{774E2D3B-90A9-4348-BC0E-B011EF1E67B5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Manual adjustment to match the actual data</t>
       </text>
     </comment>
   </commentList>
@@ -88,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="72">
   <si>
     <t>sum from 12</t>
   </si>
@@ -315,6 +378,9 @@
   <si>
     <t>12 &amp; later</t>
   </si>
+  <si>
+    <t>Note I have chosen to fit each time from one before blue, to the last amount that is more than 1 with three decimals.</t>
+  </si>
 </sst>
 </file>
 
@@ -325,7 +391,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,8 +486,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +560,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -540,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -608,10 +686,12 @@
     <xf numFmtId="10" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -629,7 +709,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1353,7 +1433,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1691,13 +1771,13 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.9361300008119088E-2</c:v>
+                  <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.19805606076978319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9884125387883688E-2</c:v>
+                  <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.20406162345243509</c:v>
@@ -1969,7 +2049,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2855,7 +2935,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3188,7 +3268,7 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.9345886269687558E-2</c:v>
+                  <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.19804862387878727</c:v>
@@ -3466,7 +3546,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4181,7 +4261,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4769,7 +4849,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4948,19 +5028,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.9318223696333155E-2</c:v>
+                  <c:v>9.9226091763405203E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19803104143210479</c:v>
+                  <c:v>0.19791461735195751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9899780980062941E-2</c:v>
+                  <c:v>9.9841049076097754E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20413856188236776</c:v>
+                  <c:v>0.20401854714064915</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10225287410332369</c:v>
+                  <c:v>0.10219275879653238</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.19926732864166585</c:v>
@@ -5107,52 +5187,52 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.9318223696333155E-2</c:v>
+                  <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19803104143210479</c:v>
+                  <c:v>0.19803017006429433</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9899780980062941E-2</c:v>
+                  <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20413856188236776</c:v>
+                  <c:v>0.2041376636405042</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10225287410332369</c:v>
+                  <c:v>0.10225242417455305</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19938454845974149</c:v>
+                  <c:v>0.19938367113628669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9468496096252787E-2</c:v>
+                  <c:v>9.9467919473011646E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20509214971465525</c:v>
+                  <c:v>0.20509149232464571</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9363121731048984E-2</c:v>
+                  <c:v>9.9364741660844316E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19914166407258768</c:v>
+                  <c:v>0.19916009116736999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.8380721970887541E-2</c:v>
+                  <c:v>9.8414055048444582E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21918717054413117</c:v>
+                  <c:v>0.21926143492041228</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.10162103156364463</c:v>
+                  <c:v>0.10165546251371979</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.16269464544472143</c:v>
+                  <c:v>0.16274976918366216</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1855113650141081E-2</c:v>
+                  <c:v>5.18726830528696E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.43782086630014561</c:v>
+                  <c:v>0.43796920752594781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5385,7 +5465,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5723,19 +5803,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="1">
-                  <c:v>9.9349277561634794E-2</c:v>
+                  <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.19804406704747146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9917863481779473E-2</c:v>
+                  <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20404535134191928</c:v>
+                  <c:v>0.20404072694569139</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10222471144377437</c:v>
+                  <c:v>0.10220095110648901</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.19937316413147535</c:v>
@@ -5744,10 +5824,10 @@
                   <c:v>9.9854291137689941E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20477554339577092</c:v>
+                  <c:v>0.20474235186236217</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9240122854015511E-2</c:v>
+                  <c:v>9.9077114768141572E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.19987387778650234</c:v>
@@ -5756,10 +5836,10 @@
                   <c:v>0.1039087369575771</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20696395562157352</c:v>
+                  <c:v>0.20691913639022155</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.6181432576190065E-2</c:v>
+                  <c:v>9.6172964654499551E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.18221818695261624</c:v>
@@ -5768,7 +5848,7 @@
                   <c:v>0.11846905663592197</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20099136555970062</c:v>
+                  <c:v>0.20094783972697425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10787,6 +10867,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Benjamin Avanzi" id="{31E35C7D-904A-E640-86C7-216DA4066236}" userId="Benjamin Avanzi" providerId="None"/>
   <person displayName="Ho Ming Lee" id="{6C9A89E2-C556-4F13-A1C5-5599788AEDCE}" userId="S::homingl@student.unimelb.edu.au::bfa24eb6-4300-4edd-94be-5063054271f5" providerId="AD"/>
 </personList>
 </file>
@@ -11054,8 +11135,35 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O4" dT="2024-08-15T22:55:14.04" personId="{31E35C7D-904A-E640-86C7-216DA4066236}" id="{7436AD1E-F8F7-6143-BDDF-508F80EBB7AF}">
+    <text>Manual adjustment to match actual data</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O6" dT="2024-08-15T22:55:52.72" personId="{31E35C7D-904A-E640-86C7-216DA4066236}" id="{718C5117-7904-D94A-BEB0-705E7146779B}">
+    <text>Here we keep the project which is higher than actual known</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="N4" dT="2024-07-07T17:45:43.52" personId="{6C9A89E2-C556-4F13-A1C5-5599788AEDCE}" id="{2A29BD34-3948-46CE-B809-C64F8F1DBC24}">
     <text>Here, the projection is less than the actual claims we had. To be conservative, we choose the larger one.</text>
+  </threadedComment>
+  <threadedComment ref="N6" dT="2024-08-15T22:48:26.71" personId="{31E35C7D-904A-E640-86C7-216DA4066236}" id="{397F5E1F-6928-5E46-8A48-53EBC825C2D4}">
+    <text>Same comment</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="O4" dT="2024-08-15T22:53:52.76" personId="{31E35C7D-904A-E640-86C7-216DA4066236}" id="{774E2D3B-90A9-4348-BC0E-B011EF1E67B5}">
+    <text>Manual adjustment to match the actual data</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -11065,12 +11173,12 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>10854</v>
       </c>
@@ -11123,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10166</v>
       </c>
@@ -11176,7 +11284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10066</v>
       </c>
@@ -11229,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10352</v>
       </c>
@@ -11282,7 +11390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9805</v>
       </c>
@@ -11335,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10373</v>
       </c>
@@ -11388,7 +11496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8396</v>
       </c>
@@ -11441,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8638</v>
       </c>
@@ -11494,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8303</v>
       </c>
@@ -11547,7 +11655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9668</v>
       </c>
@@ -11600,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9301</v>
       </c>
@@ -11653,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8414</v>
       </c>
@@ -11706,7 +11814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7735</v>
       </c>
@@ -11759,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>8493</v>
       </c>
@@ -11812,7 +11920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8696</v>
       </c>
@@ -11865,7 +11973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>8772</v>
       </c>
@@ -11931,9 +12039,9 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>45</v>
       </c>
@@ -11950,7 +12058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="22">
         <v>91</v>
       </c>
@@ -11998,9 +12106,9 @@
         <f t="shared" ref="Q2:Q17" si="0">S2-P2</f>
         <v>1</v>
       </c>
-      <c r="R2" s="33" t="e">
+      <c r="R2" s="33">
         <f>Q2/'CL IBNR'!R4</f>
-        <v>#DIV/0!</v>
+        <v>0.5</v>
       </c>
       <c r="S2" s="34">
         <f t="shared" ref="S2:S17" si="1">SUM(C2:O2)</f>
@@ -12008,10 +12116,10 @@
       </c>
       <c r="T2" s="33">
         <f>S2/'CL IBNR'!S4</f>
-        <v>1.0009276437847867</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="22">
         <v>63</v>
       </c>
@@ -12059,9 +12167,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R3" s="33" t="e">
+      <c r="R3" s="33">
         <f>Q3/'CL IBNR'!R5</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S3" s="34">
         <f t="shared" si="1"/>
@@ -12069,10 +12177,10 @@
       </c>
       <c r="T3" s="33">
         <f>S3/'CL IBNR'!S5</f>
-        <v>0.99990881745620819</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99991321723204352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="22">
         <v>12</v>
       </c>
@@ -12120,9 +12228,9 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R4" s="33" t="e">
+      <c r="R4" s="33">
         <f>Q4/'CL IBNR'!R6</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="S4" s="34">
         <f t="shared" si="1"/>
@@ -12130,10 +12238,10 @@
       </c>
       <c r="T4" s="33">
         <f>S4/'CL IBNR'!S6</f>
-        <v>1.0004065316567792</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="22">
         <v>385</v>
       </c>
@@ -12181,9 +12289,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R5" s="33" t="e">
+      <c r="R5" s="33">
         <f>Q5/'CL IBNR'!R7</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S5" s="34">
         <f t="shared" si="1"/>
@@ -12191,10 +12299,10 @@
       </c>
       <c r="T5" s="33">
         <f>S5/'CL IBNR'!S7</f>
-        <v>0.99941209176447632</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99941648935463079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="22">
         <v>92</v>
       </c>
@@ -12242,9 +12350,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R6" s="33" t="e">
+      <c r="R6" s="33">
         <f>Q6/'CL IBNR'!R8</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="S6" s="34">
         <f t="shared" si="1"/>
@@ -12252,10 +12360,10 @@
       </c>
       <c r="T6" s="33">
         <f>S6/'CL IBNR'!S8</f>
-        <v>0.99941209176447632</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99941648935463079</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="22">
         <v>69</v>
       </c>
@@ -12305,7 +12413,7 @@
       </c>
       <c r="R7" s="33">
         <f>Q7/'CL IBNR'!R9</f>
-        <v>2.4672652034247262</v>
+        <v>2.4858705259187115</v>
       </c>
       <c r="S7" s="34">
         <f t="shared" si="1"/>
@@ -12313,10 +12421,10 @@
       </c>
       <c r="T7" s="33">
         <f>S7/'CL IBNR'!S9</f>
-        <v>1.0008626172967905</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0008670212695141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="22">
         <v>6</v>
       </c>
@@ -12366,7 +12474,7 @@
       </c>
       <c r="R8" s="33">
         <f>Q8/'CL IBNR'!R10</f>
-        <v>3.5165044636021325</v>
+        <v>3.5315351664750918</v>
       </c>
       <c r="S8" s="34">
         <f t="shared" si="1"/>
@@ -12374,10 +12482,10 @@
       </c>
       <c r="T8" s="33">
         <f>S8/'CL IBNR'!S10</f>
-        <v>1.0034275874321132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0034334043796356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="22">
         <v>315</v>
       </c>
@@ -12427,7 +12535,7 @@
       </c>
       <c r="R9" s="33">
         <f>Q9/'CL IBNR'!R11</f>
-        <v>0.17901932100046647</v>
+        <v>0.17920149140586439</v>
       </c>
       <c r="S9" s="34">
         <f t="shared" si="1"/>
@@ -12435,10 +12543,10 @@
       </c>
       <c r="T9" s="33">
         <f>S9/'CL IBNR'!S11</f>
-        <v>0.99741136514791928</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99741456220041247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="22">
         <v>78</v>
       </c>
@@ -12488,7 +12596,7 @@
       </c>
       <c r="R10" s="33">
         <f>Q10/'CL IBNR'!R12</f>
-        <v>0.66533602423676097</v>
+        <v>0.6638508316172097</v>
       </c>
       <c r="S10" s="34">
         <f t="shared" si="1"/>
@@ -12496,10 +12604,10 @@
       </c>
       <c r="T10" s="33">
         <f>S10/'CL IBNR'!S12</f>
-        <v>0.99756124791693801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99754498481232812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="22">
         <v>85</v>
       </c>
@@ -12549,7 +12657,7 @@
       </c>
       <c r="R11" s="33">
         <f>Q11/'CL IBNR'!R13</f>
-        <v>1.393119489483539</v>
+        <v>1.3854781578383988</v>
       </c>
       <c r="S11" s="34">
         <f t="shared" si="1"/>
@@ -12557,10 +12665,10 @@
       </c>
       <c r="T11" s="33">
         <f>S11/'CL IBNR'!S13</f>
-        <v>1.0065955337552226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0065023994771691</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="22">
         <v>18</v>
       </c>
@@ -12610,7 +12718,7 @@
       </c>
       <c r="R12" s="33">
         <f>Q12/'CL IBNR'!R14</f>
-        <v>2.3402430879028433</v>
+        <v>2.3197178902541751</v>
       </c>
       <c r="S12" s="34">
         <f t="shared" si="1"/>
@@ -12618,10 +12726,10 @@
       </c>
       <c r="T12" s="33">
         <f>S12/'CL IBNR'!S14</f>
-        <v>1.0513212005943267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0509651155707036</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="22">
         <v>331</v>
       </c>
@@ -12671,7 +12779,7 @@
       </c>
       <c r="R13" s="33">
         <f>Q13/'CL IBNR'!R15</f>
-        <v>0.29769130539397398</v>
+        <v>0.29654210879946441</v>
       </c>
       <c r="S13" s="34">
         <f t="shared" si="1"/>
@@ -12679,10 +12787,10 @@
       </c>
       <c r="T13" s="33">
         <f>S13/'CL IBNR'!S15</f>
-        <v>0.9385975791737442</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.93827967391228506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="22">
         <v>67</v>
       </c>
@@ -12732,7 +12840,7 @@
       </c>
       <c r="R14" s="33">
         <f>Q14/'CL IBNR'!R16</f>
-        <v>0.72837019474125708</v>
+        <v>0.72698762090316027</v>
       </c>
       <c r="S14" s="34">
         <f t="shared" si="1"/>
@@ -12740,10 +12848,10 @@
       </c>
       <c r="T14" s="33">
         <f>S14/'CL IBNR'!S16</f>
-        <v>0.9516071153315544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.95128480370885415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="22">
         <v>60</v>
       </c>
@@ -12793,7 +12901,7 @@
       </c>
       <c r="R15" s="33">
         <f>Q15/'CL IBNR'!R17</f>
-        <v>1.4685497707522677</v>
+        <v>1.4670751351464597</v>
       </c>
       <c r="S15" s="34">
         <f t="shared" si="1"/>
@@ -12801,10 +12909,10 @@
       </c>
       <c r="T15" s="33">
         <f>S15/'CL IBNR'!S17</f>
-        <v>1.1579387795477298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.1575465828932381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="22">
         <v>11</v>
       </c>
@@ -12854,7 +12962,7 @@
       </c>
       <c r="R16" s="33">
         <f>Q16/'CL IBNR'!R18</f>
-        <v>2.7719125488087917</v>
+        <v>2.7703502978365666</v>
       </c>
       <c r="S16" s="34">
         <f t="shared" si="1"/>
@@ -12862,7 +12970,7 @@
       </c>
       <c r="T16" s="57">
         <f>S16/'CL IBNR'!S18</f>
-        <v>2.0646125335607257</v>
+        <v>2.0639132443212715</v>
       </c>
       <c r="U16" s="56" t="s">
         <v>68</v>
@@ -12875,7 +12983,7 @@
       <c r="AA16" s="56"/>
       <c r="AB16" s="56"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="22">
         <v>323</v>
       </c>
@@ -12925,7 +13033,7 @@
       </c>
       <c r="R17" s="33">
         <f>Q17/'CL IBNR'!R19</f>
-        <v>0.37781821695477591</v>
+        <v>0.37767850271714476</v>
       </c>
       <c r="S17" s="34">
         <f t="shared" si="1"/>
@@ -12933,7 +13041,7 @@
       </c>
       <c r="T17" s="57">
         <f>S17/'CL IBNR'!S19</f>
-        <v>0.43014508417455538</v>
+        <v>0.42999939299818318</v>
       </c>
       <c r="U17" s="56" t="s">
         <v>67</v>
@@ -12946,7 +13054,7 @@
       <c r="AA17" s="56"/>
       <c r="AB17" s="56"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -12964,7 +13072,7 @@
       <c r="R18" s="33"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>51</v>
       </c>
@@ -12975,72 +13083,72 @@
       </c>
       <c r="R19" s="33">
         <f>Q19/'CL IBNR'!R21</f>
-        <v>0.65885473142909612</v>
+        <v>0.65753759286698521</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="35">
         <f>AVERAGE(T2:T17)</f>
-        <v>1.0375092387723965</v>
+        <v>1.0372810863428061</v>
       </c>
       <c r="U19" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N20">
         <f>IF('CL IBNR'!N4&gt;0,N2/'CL IBNR'!N4,"")</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N21">
         <f>IF('CL IBNR'!N5&gt;0,N3/'CL IBNR'!N5,"")</f>
-        <v>0.8449034419281497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.85127474769284917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N22">
         <f>IF('CL IBNR'!N6&gt;0,N4/'CL IBNR'!N6,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N23">
         <f>IF('CL IBNR'!N7&gt;0,N5/'CL IBNR'!N7,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="N24">
         <f>IF('CL IBNR'!N8&gt;0,N6/'CL IBNR'!N8,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="M25">
         <f>IF('CL IBNR'!M9&gt;0,M7/'CL IBNR'!M9,"")</f>
         <v>1</v>
       </c>
       <c r="N25">
         <f>IF('CL IBNR'!N9&gt;0,N7/'CL IBNR'!N9,"")</f>
-        <v>1.6448434689496247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1.6572470172791607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="L26">
         <f>IF('CL IBNR'!L10&gt;0,L8/'CL IBNR'!L10,"")</f>
         <v>1</v>
       </c>
       <c r="M26">
         <f>IF('CL IBNR'!M10&gt;0,M8/'CL IBNR'!M10,"")</f>
-        <v>4.6403065304219888</v>
+        <v>4.6486899562613004</v>
       </c>
       <c r="N26">
         <f>IF('CL IBNR'!N10&gt;0,N8/'CL IBNR'!N10,"")</f>
-        <v>2.0367253763122912</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2.0520869211238182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K27">
         <f>IF('CL IBNR'!K11&gt;0,K9/'CL IBNR'!K11,"")</f>
         <v>1</v>
@@ -13051,21 +13159,21 @@
       </c>
       <c r="M27">
         <f>IF('CL IBNR'!M11&gt;0,M9/'CL IBNR'!M11,"")</f>
-        <v>0.72915718592566769</v>
+        <v>0.73047262709706728</v>
       </c>
       <c r="N27">
         <f>IF('CL IBNR'!N11&gt;0,N9/'CL IBNR'!N11,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J28">
         <f>IF('CL IBNR'!J12&gt;0,J10/'CL IBNR'!J12,"")</f>
         <v>1</v>
       </c>
       <c r="K28">
         <f>IF('CL IBNR'!K12&gt;0,K10/'CL IBNR'!K12,"")</f>
-        <v>0.87959677123238955</v>
+        <v>0.87547844136423525</v>
       </c>
       <c r="L28">
         <f>IF('CL IBNR'!L12&gt;0,L10/'CL IBNR'!L12,"")</f>
@@ -13077,66 +13185,66 @@
       </c>
       <c r="N28">
         <f>IF('CL IBNR'!N12&gt;0,N10/'CL IBNR'!N12,"")</f>
-        <v>2.0617224061106065</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2.0772265780858765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I29">
         <f>IF('CL IBNR'!I13&gt;0,I11/'CL IBNR'!I13,"")</f>
         <v>1</v>
       </c>
       <c r="J29">
         <f>IF('CL IBNR'!J13&gt;0,J11/'CL IBNR'!J13,"")</f>
-        <v>1.2587830875993105</v>
+        <v>1.2488252978275736</v>
       </c>
       <c r="K29">
         <f>IF('CL IBNR'!K13&gt;0,K11/'CL IBNR'!K13,"")</f>
-        <v>1.8845823638282204</v>
+        <v>1.8756156505459709</v>
       </c>
       <c r="L29">
         <f>IF('CL IBNR'!L13&gt;0,L11/'CL IBNR'!L13,"")</f>
-        <v>1.1599830020677444</v>
+        <v>1.1581982898210312</v>
       </c>
       <c r="M29">
         <f>IF('CL IBNR'!M13&gt;0,M11/'CL IBNR'!M13,"")</f>
-        <v>2.0128243528155871</v>
+        <v>2.0162625693748679</v>
       </c>
       <c r="N29">
         <f>IF('CL IBNR'!N13&gt;0,N11/'CL IBNR'!N13,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H30">
         <f>IF('CL IBNR'!H14&gt;0,H12/'CL IBNR'!H14,"")</f>
         <v>1</v>
       </c>
       <c r="I30">
         <f>IF('CL IBNR'!I14&gt;0,I12/'CL IBNR'!I14,"")</f>
-        <v>1.7778145374182661</v>
+        <v>1.758029670905044</v>
       </c>
       <c r="J30">
         <f>IF('CL IBNR'!J14&gt;0,J12/'CL IBNR'!J14,"")</f>
-        <v>3.5697999656991142</v>
+        <v>3.5406885988460548</v>
       </c>
       <c r="K30">
         <f>IF('CL IBNR'!K14&gt;0,K12/'CL IBNR'!K14,"")</f>
-        <v>2.3791701200015223</v>
+        <v>2.3672672247337712</v>
       </c>
       <c r="L30">
         <f>IF('CL IBNR'!L14&gt;0,L12/'CL IBNR'!L14,"")</f>
-        <v>1.2203397382179884</v>
+        <v>1.2181621762601589</v>
       </c>
       <c r="M30">
         <f>IF('CL IBNR'!M14&gt;0,M12/'CL IBNR'!M14,"")</f>
-        <v>2.8234086642249059</v>
+        <v>2.827535170799488</v>
       </c>
       <c r="N30">
         <f>IF('CL IBNR'!N14&gt;0,N12/'CL IBNR'!N14,"")</f>
-        <v>5.5766329581717473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+        <v>5.6167578369902538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G31">
         <f>IF('CL IBNR'!G15&gt;0,G13/'CL IBNR'!G15,"")</f>
         <v>1</v>
@@ -13147,15 +13255,15 @@
       </c>
       <c r="I31">
         <f>IF('CL IBNR'!I15&gt;0,I13/'CL IBNR'!I15,"")</f>
-        <v>0.27722545538243848</v>
+        <v>0.27414028057181183</v>
       </c>
       <c r="J31">
         <f>IF('CL IBNR'!J15&gt;0,J13/'CL IBNR'!J15,"")</f>
-        <v>0.34281155269554736</v>
+        <v>0.34001595827348496</v>
       </c>
       <c r="K31">
         <f>IF('CL IBNR'!K15&gt;0,K13/'CL IBNR'!K15,"")</f>
-        <v>0.393483253572323</v>
+        <v>0.39151467220964087</v>
       </c>
       <c r="L31">
         <f>IF('CL IBNR'!L15&gt;0,L13/'CL IBNR'!L15,"")</f>
@@ -13163,14 +13271,14 @@
       </c>
       <c r="M31">
         <f>IF('CL IBNR'!M15&gt;0,M13/'CL IBNR'!M15,"")</f>
-        <v>0.70043164506630051</v>
+        <v>0.70145534943649479</v>
       </c>
       <c r="N31">
         <f>IF('CL IBNR'!N15&gt;0,N13/'CL IBNR'!N15,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="F32">
         <f>IF('CL IBNR'!F16&gt;0,F14/'CL IBNR'!F16,"")</f>
         <v>1</v>
@@ -13185,23 +13293,23 @@
       </c>
       <c r="I32">
         <f>IF('CL IBNR'!I16&gt;0,I14/'CL IBNR'!I16,"")</f>
-        <v>0.65043937895337223</v>
+        <v>0.64320079696594867</v>
       </c>
       <c r="J32">
         <f>IF('CL IBNR'!J16&gt;0,J14/'CL IBNR'!J16,"")</f>
-        <v>0.26810685322977751</v>
+        <v>0.26592046826838295</v>
       </c>
       <c r="K32">
         <f>IF('CL IBNR'!K16&gt;0,K14/'CL IBNR'!K16,"")</f>
-        <v>0.61547258885747802</v>
+        <v>0.61239340351307847</v>
       </c>
       <c r="L32">
         <f>IF('CL IBNR'!L16&gt;0,L14/'CL IBNR'!L16,"")</f>
-        <v>1.4206152945666231</v>
+        <v>1.418080362919903</v>
       </c>
       <c r="M32">
         <f>IF('CL IBNR'!M16&gt;0,M14/'CL IBNR'!M16,"")</f>
-        <v>1.6433856104148854</v>
+        <v>1.6457874736704168</v>
       </c>
       <c r="N32">
         <f>IF('CL IBNR'!N16&gt;0,N14/'CL IBNR'!N16,"")</f>
@@ -13214,7 +13322,7 @@
       <c r="R32" s="56"/>
       <c r="S32" s="56"/>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>IF('CL IBNR'!E17&gt;0,E15/'CL IBNR'!E17,"")</f>
         <v>1</v>
@@ -13233,30 +13341,30 @@
       </c>
       <c r="I33">
         <f>IF('CL IBNR'!I17&gt;0,I15/'CL IBNR'!I17,"")</f>
-        <v>1.3791373851795103</v>
+        <v>1.3637892999350307</v>
       </c>
       <c r="J33">
         <f>IF('CL IBNR'!J17&gt;0,J15/'CL IBNR'!J17,"")</f>
-        <v>1.83020060558719</v>
+        <v>1.8152755000474161</v>
       </c>
       <c r="K33">
         <f>IF('CL IBNR'!K17&gt;0,K15/'CL IBNR'!K17,"")</f>
-        <v>1.575544821886564</v>
+        <v>1.5676624326253237</v>
       </c>
       <c r="L33">
         <f>IF('CL IBNR'!L17&gt;0,L15/'CL IBNR'!L17,"")</f>
-        <v>1.6162778267327318</v>
+        <v>1.6133937568310863</v>
       </c>
       <c r="M33">
         <f>IF('CL IBNR'!M17&gt;0,M15/'CL IBNR'!M17,"")</f>
-        <v>0.93486524221024703</v>
+        <v>0.93623157915509292</v>
       </c>
       <c r="N33">
         <f>IF('CL IBNR'!N17&gt;0,N15/'CL IBNR'!N17,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D34">
         <f>IF('CL IBNR'!D18&gt;0,D16/'CL IBNR'!D18,"")</f>
         <v>1</v>
@@ -13279,30 +13387,30 @@
       </c>
       <c r="I34">
         <f>IF('CL IBNR'!I18&gt;0,I16/'CL IBNR'!I18,"")</f>
-        <v>3.9167922211415984</v>
+        <v>3.8732031911138392</v>
       </c>
       <c r="J34">
         <f>IF('CL IBNR'!J18&gt;0,J16/'CL IBNR'!J18,"")</f>
-        <v>4.9071576447188425</v>
+        <v>4.8671402578137393</v>
       </c>
       <c r="K34">
         <f>IF('CL IBNR'!K18&gt;0,K16/'CL IBNR'!K18,"")</f>
-        <v>6.437137140644718</v>
+        <v>6.4049323947271821</v>
       </c>
       <c r="L34">
         <f>IF('CL IBNR'!L18&gt;0,L16/'CL IBNR'!L18,"")</f>
-        <v>6.1908358720182433</v>
+        <v>6.1797890067397612</v>
       </c>
       <c r="M34">
         <f>IF('CL IBNR'!M18&gt;0,M16/'CL IBNR'!M18,"")</f>
-        <v>11.458618673108131</v>
+        <v>11.475365829086412</v>
       </c>
       <c r="N34">
         <f>IF('CL IBNR'!N18&gt;0,N16/'CL IBNR'!N18,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>IF('CL IBNR'!C19&gt;0,C17/'CL IBNR'!C19,"")</f>
         <v>1</v>
@@ -13329,23 +13437,23 @@
       </c>
       <c r="I35">
         <f>IF('CL IBNR'!I19&gt;0,I17/'CL IBNR'!I19,"")</f>
-        <v>0.10891946236992081</v>
+        <v>0.10770732410784416</v>
       </c>
       <c r="J35">
         <f>IF('CL IBNR'!J19&gt;0,J17/'CL IBNR'!J19,"")</f>
-        <v>0.13718188377316881</v>
+        <v>0.13606317903271078</v>
       </c>
       <c r="K35">
         <f>IF('CL IBNR'!K19&gt;0,K17/'CL IBNR'!K19,"")</f>
-        <v>6.2983611297587214E-2</v>
+        <v>6.2668506748081762E-2</v>
       </c>
       <c r="L35">
         <f>IF('CL IBNR'!L19&gt;0,L17/'CL IBNR'!L19,"")</f>
-        <v>0.14537687483773701</v>
+        <v>0.14511746580410423</v>
       </c>
       <c r="M35">
         <f>IF('CL IBNR'!M19&gt;0,M17/'CL IBNR'!M19,"")</f>
-        <v>0.33634758841351975</v>
+        <v>0.33683917170874716</v>
       </c>
       <c r="N35">
         <f>IF('CL IBNR'!N19&gt;0,N17/'CL IBNR'!N19,"")</f>
@@ -13371,24 +13479,24 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2807277-F5B5-4DF4-A542-746EEE170427}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32:Q35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="38" customWidth="1"/>
-    <col min="3" max="20" width="9.140625" style="38"/>
-    <col min="21" max="21" width="9.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.140625" style="38"/>
-    <col min="23" max="23" width="9.42578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="1" width="21.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="38" customWidth="1"/>
+    <col min="3" max="20" width="9.1640625" style="38"/>
+    <col min="21" max="21" width="9.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.1640625" style="38"/>
+    <col min="23" max="23" width="9.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.1640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
@@ -13408,7 +13516,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -13462,7 +13570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="14"/>
       <c r="C3" s="1"/>
@@ -13478,7 +13586,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -13545,7 +13653,7 @@
       </c>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -13609,7 +13717,7 @@
       <c r="Q5" s="31"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -13670,7 +13778,7 @@
       <c r="Q6" s="31"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -13728,7 +13836,7 @@
       <c r="Q7" s="31"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -13783,7 +13891,7 @@
       <c r="Q8" s="31"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -13835,7 +13943,7 @@
       <c r="Q9" s="31"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -13884,7 +13992,7 @@
       <c r="Q10" s="31"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -13930,7 +14038,7 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -13973,7 +14081,7 @@
       <c r="Q12" s="31"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -14013,7 +14121,7 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -14050,7 +14158,7 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -14084,7 +14192,7 @@
       <c r="Q15" s="31"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -14115,7 +14223,7 @@
       <c r="Q16" s="31"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -14143,7 +14251,7 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -14168,7 +14276,7 @@
       <c r="Q18" s="31"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -14190,13 +14298,13 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A22" s="60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -14263,7 +14371,7 @@
       </c>
       <c r="R24" s="43"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -14326,7 +14434,7 @@
       </c>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -14385,7 +14493,7 @@
       </c>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -14440,8 +14548,8 @@
       </c>
       <c r="R27" s="1"/>
     </row>
-    <row r="29" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="59" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -14473,35 +14581,48 @@
         <v>1.0137760508654186</v>
       </c>
       <c r="I32" s="45" cm="1">
-        <f t="array" ref="I32">EXP(_xlfn.FORECAST.LINEAR(I$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0046779778569639</v>
+        <f t="array" ref="I32">EXP(_xlfn.FORECAST.LINEAR(I$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0062423406236709</v>
       </c>
       <c r="J32" s="45" cm="1">
-        <f t="array" ref="J32">EXP(_xlfn.FORECAST.LINEAR(J$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0027231017775946</v>
+        <f t="array" ref="J32">EXP(_xlfn.FORECAST.LINEAR(J$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0026126138257705</v>
       </c>
       <c r="K32" s="45" cm="1">
-        <f t="array" ref="K32">EXP(_xlfn.FORECAST.LINEAR(K$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0015851471550041</v>
+        <f t="array" ref="K32">EXP(_xlfn.FORECAST.LINEAR(K$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0010934601961199</v>
       </c>
       <c r="L32" s="45" cm="1">
-        <f t="array" ref="L32">EXP(_xlfn.FORECAST.LINEAR(L$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0009227313953859</v>
+        <f t="array" ref="L32">EXP(_xlfn.FORECAST.LINEAR(L$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0004576471228563</v>
       </c>
       <c r="M32" s="45" cm="1">
-        <f t="array" ref="M32">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0005371319787839</v>
+        <f t="array" ref="M32">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0001915395638561</v>
       </c>
       <c r="N32" s="45" cm="1">
-        <f t="array" ref="N32">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H24:$N24-1),$H$2:$N$2-8))+1</f>
-        <v>1.0003126703654768</v>
+        <f t="array" ref="N32">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
+        <v>1.0000801652685876</v>
       </c>
       <c r="O32" s="44" cm="1">
-        <f t="array" ref="O32">EXP(INTERCEPT(LN(H24:N24-1),H$2:N$2-8))*EXP(SLOPE(LN(J24:N24-1),J$2:N$2-8))^(12-8)/(1-EXP(SLOPE(LN(J24:N24-1),J$2:N$2-8)))+1</f>
-        <v>1.0042354678605763</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="array" ref="O32">EXP(INTERCEPT(LN(H24:J24-1),H$2:J$2-5))*EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5))^(12-5)/(1-EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5)))+1</f>
+        <v>1.000057701557368</v>
+      </c>
+      <c r="Q32" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+    </row>
+    <row r="33" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -14557,11 +14678,24 @@
         <v>1.0001569724811699</v>
       </c>
       <c r="O33" s="44" cm="1">
-        <f t="array" ref="O33">EXP(INTERCEPT(LN(H25:K25-1),H$2:K$2-8))*EXP(SLOPE(LN(J25:K25-1),J$2:K$2-8))^(12-8)/(1-EXP(SLOPE(LN(J25:K25-1),J$2:K$2-8)))+1</f>
-        <v>1.0001546937222012</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="array" ref="O33">EXP(INTERCEPT(LN(H25:K25-1),H$2:K$2-5))*EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5))^(12-5)/(1-EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5)))+1</f>
+        <v>1.0001134875706477</v>
+      </c>
+      <c r="Q33" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+    </row>
+    <row r="34" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>38</v>
@@ -14615,11 +14749,24 @@
         <v>1.0007693669727284</v>
       </c>
       <c r="O34" s="44" cm="1">
-        <f t="array" ref="O34">EXP(INTERCEPT(LN(H26:L26-1),H$2:L$2-8))*EXP(SLOPE(LN(J26:L26-1),J$2:L$2-8))^(12-8)/(1-EXP(SLOPE(LN(J26:L26-1),J$2:L$2-8)))+1</f>
-        <v>1.0030240234507533</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="array" ref="O34">EXP(INTERCEPT(LN(H26:L26-1),H$2:L$2-5))*EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5))^(12-5)/(1-EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5)))+1</f>
+        <v>1.0007999018573626</v>
+      </c>
+      <c r="Q34" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+    </row>
+    <row r="35" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
@@ -14649,35 +14796,48 @@
         <v>1.0075619295958278</v>
       </c>
       <c r="I35" s="45" cm="1">
-        <f t="array" ref="I35">EXP(_xlfn.FORECAST.LINEAR(I$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
+        <f t="array" ref="I35">EXP(_xlfn.FORECAST.LINEAR(I$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
         <v>1.0026837029346951</v>
       </c>
       <c r="J35" s="45" cm="1">
-        <f t="array" ref="J35">EXP(_xlfn.FORECAST.LINEAR(J$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
-        <v>1.0014678923151905</v>
+        <f t="array" ref="J35">EXP(_xlfn.FORECAST.LINEAR(J$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
+        <v>1.001413335174568</v>
       </c>
       <c r="K35" s="45" cm="1">
-        <f t="array" ref="K35">EXP(_xlfn.FORECAST.LINEAR(K$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
-        <v>1.0008028861246672</v>
+        <f t="array" ref="K35">EXP(_xlfn.FORECAST.LINEAR(K$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
+        <v>1.000744313496791</v>
       </c>
       <c r="L35" s="45" cm="1">
-        <f t="array" ref="L35">EXP(_xlfn.FORECAST.LINEAR(L$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
-        <v>1.00043915083042</v>
+        <f t="array" ref="L35">EXP(_xlfn.FORECAST.LINEAR(L$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
+        <v>1.000391982447953</v>
       </c>
       <c r="M35" s="45" cm="1">
-        <f t="array" ref="M35">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
-        <v>1.0002402002549722</v>
+        <f t="array" ref="M35">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
+        <v>1.0002064321554904</v>
       </c>
       <c r="N35" s="45" cm="1">
-        <f t="array" ref="N35">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H27:$L27-1),$H$2:$L$2-8))+1</f>
-        <v>1.0001313811986499</v>
+        <f t="array" ref="N35">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
+        <v>1.0001087146504721</v>
       </c>
       <c r="O35" s="44" cm="1">
-        <f t="array" ref="O35">EXP(INTERCEPT(LN(H27:L27-1),H$2:L$2-8))*EXP(SLOPE(LN(J27:L27-1),J$2:L$2-8))^(12-8)/(1-EXP(SLOPE(LN(J27:L27-1),J$2:L$2-8)))+1</f>
-        <v>1.0002736094862021</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="array" ref="O35">EXP(INTERCEPT(LN(H27:K27-1),H$2:K$2-5))*EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5))^(12-5)/(1-EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5)))+1</f>
+        <v>1.0001209494166381</v>
+      </c>
+      <c r="Q35" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="R35" s="62"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C38" s="38">
         <v>0</v>
       </c>
@@ -14718,7 +14878,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A39" s="38" t="s">
         <v>56</v>
       </c>
@@ -14727,452 +14887,452 @@
       </c>
       <c r="C39" s="47">
         <f>PRODUCT(C32:$O32)</f>
-        <v>11.159750057594891</v>
+        <v>11.112345436937888</v>
       </c>
       <c r="D39" s="47">
         <f>PRODUCT(D32:$O32)</f>
-        <v>2.2511672932909734</v>
+        <v>2.2416047375864863</v>
       </c>
       <c r="E39" s="47">
         <f>PRODUCT(E32:$O32)</f>
-        <v>1.400841185951444</v>
+        <v>1.3948906633431408</v>
       </c>
       <c r="F39" s="47">
         <f>PRODUCT(F32:$O32)</f>
-        <v>1.1565238606291073</v>
+        <v>1.1516111542861376</v>
       </c>
       <c r="G39" s="47">
         <f>PRODUCT(G32:$O32)</f>
-        <v>1.0687027164067204</v>
+        <v>1.0641630585644835</v>
       </c>
       <c r="H39" s="47">
         <f>PRODUCT(H32:$O32)</f>
-        <v>1.0290652083803324</v>
+        <v>1.024693923577104</v>
       </c>
       <c r="I39" s="47">
         <f>PRODUCT(I32:$O32)</f>
-        <v>1.0150813954441535</v>
+        <v>1.0107695113751853</v>
       </c>
       <c r="J39" s="47">
         <f>PRODUCT(J32:$O32)</f>
-        <v>1.0103549772329843</v>
+        <v>1.0044990859246774</v>
       </c>
       <c r="K39" s="47">
         <f>PRODUCT(K32:$O32)</f>
-        <v>1.0076111495206008</v>
+        <v>1.0018815563188543</v>
       </c>
       <c r="L39" s="47">
         <f>PRODUCT(L32:$O32)</f>
-        <v>1.006016465382612</v>
+        <v>1.0007872353122556</v>
       </c>
       <c r="M39" s="47">
         <f>PRODUCT(M32:$O32)</f>
-        <v>1.0050890381719328</v>
+        <v>1.00032943742331</v>
       </c>
       <c r="N39" s="47">
         <f>PRODUCT(N32:$O32)</f>
-        <v>1.0045494625313369</v>
+        <v>1.0001378714516163</v>
       </c>
       <c r="O39" s="47">
         <f>PRODUCT(O32:$O32)</f>
-        <v>1.0042354678605763</v>
+        <v>1.000057701557368</v>
       </c>
       <c r="P39" s="47"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A40" s="38" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="58">
         <f>1/C39</f>
-        <v>8.9607741646457295E-2</v>
+        <v>8.9990003071355157E-2</v>
       </c>
       <c r="D40" s="58">
         <f t="shared" ref="D40:O40" si="1">1/D39-1/C39</f>
-        <v>0.3546062459057977</v>
+        <v>0.35611897556896044</v>
       </c>
       <c r="E40" s="58">
         <f t="shared" si="1"/>
-        <v>0.26964280794223588</v>
+        <v>0.27079308851044975</v>
       </c>
       <c r="F40" s="58">
         <f t="shared" si="1"/>
-        <v>0.15080327252696446</v>
+        <v>0.15144659053472009</v>
       </c>
       <c r="G40" s="58">
         <f t="shared" si="1"/>
-        <v>7.10538444146257E-2</v>
+        <v>7.1356955990827475E-2</v>
       </c>
       <c r="H40" s="58">
         <f t="shared" si="1"/>
-        <v>3.6041805137853045E-2</v>
+        <v>3.6195557386651922E-2</v>
       </c>
       <c r="I40" s="58">
         <f t="shared" si="1"/>
-        <v>1.3386956194060051E-2</v>
+        <v>1.34440641721848E-2</v>
       </c>
       <c r="J40" s="58">
         <f t="shared" si="1"/>
-        <v>4.6084756138369265E-3</v>
+        <v>6.1758299527436833E-3</v>
       </c>
       <c r="K40" s="58">
         <f t="shared" si="1"/>
-        <v>2.6951931142578101E-3</v>
+        <v>2.6009120987555701E-3</v>
       </c>
       <c r="L40" s="58">
         <f t="shared" si="1"/>
-        <v>1.5731734963021493E-3</v>
+        <v>1.0914066530354205E-3</v>
       </c>
       <c r="M40" s="58">
         <f t="shared" si="1"/>
-        <v>9.1721301503222552E-4</v>
+        <v>4.5728713027981538E-4</v>
       </c>
       <c r="N40" s="58">
         <f t="shared" si="1"/>
-        <v>5.344123340166318E-4</v>
+        <v>1.9147648433648357E-4</v>
       </c>
       <c r="O40" s="58">
         <f t="shared" si="1"/>
-        <v>3.112543255847644E-4</v>
+        <v>8.0154217609096357E-5</v>
       </c>
       <c r="P40" s="58"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B41" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="47">
         <f>PRODUCT(C33:$O33)</f>
-        <v>27.322840216368206</v>
+        <v>27.32171452141132</v>
       </c>
       <c r="D41" s="47">
         <f>PRODUCT(D33:$O33)</f>
-        <v>3.2977894291651393</v>
+        <v>3.2976535609720856</v>
       </c>
       <c r="E41" s="47">
         <f>PRODUCT(E33:$O33)</f>
-        <v>1.6897581468930554</v>
+        <v>1.6896885292321806</v>
       </c>
       <c r="F41" s="47">
         <f>PRODUCT(F33:$O33)</f>
-        <v>1.2845334494089937</v>
+        <v>1.2844805269157793</v>
       </c>
       <c r="G41" s="47">
         <f>PRODUCT(G33:$O33)</f>
-        <v>1.1182407647436765</v>
+        <v>1.1181946934721876</v>
       </c>
       <c r="H41" s="47">
         <f>PRODUCT(H33:$O33)</f>
-        <v>1.0520021452699557</v>
+        <v>1.0519588030148979</v>
       </c>
       <c r="I41" s="47">
         <f>PRODUCT(I33:$O33)</f>
-        <v>1.0209612137323987</v>
+        <v>1.0209191503568356</v>
       </c>
       <c r="J41" s="47">
         <f>PRODUCT(J33:$O33)</f>
-        <v>1.0087882126900363</v>
+        <v>1.0087466508394161</v>
       </c>
       <c r="K41" s="47">
         <f>PRODUCT(K33:$O33)</f>
-        <v>1.0037060405560716</v>
+        <v>1.0036646880898161</v>
       </c>
       <c r="L41" s="47">
         <f>PRODUCT(L33:$O33)</f>
-        <v>1.0015780348069816</v>
+        <v>1.0015367700140911</v>
       </c>
       <c r="M41" s="47">
         <f>PRODUCT(M33:$O33)</f>
-        <v>1.0006858990262362</v>
+        <v>1.0006446709891419</v>
       </c>
       <c r="N41" s="47">
         <f>PRODUCT(N33:$O33)</f>
-        <v>1.0003116904860285</v>
+        <v>1.000270477866243</v>
       </c>
       <c r="O41" s="47">
         <f>PRODUCT(O33:$O33)</f>
-        <v>1.0001546937222012</v>
+        <v>1.0001134875706477</v>
       </c>
       <c r="P41" s="47"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C42" s="58">
         <f>1/C41</f>
-        <v>3.6599416169075027E-2</v>
+        <v>3.6600924119030889E-2</v>
       </c>
       <c r="D42" s="58">
         <f t="shared" ref="D42:O42" si="2">1/D41-1/C41</f>
-        <v>0.26663401382380286</v>
+        <v>0.26664499953864379</v>
       </c>
       <c r="E42" s="58">
         <f t="shared" si="2"/>
-        <v>0.28856723795400668</v>
+        <v>0.28857912735004854</v>
       </c>
       <c r="F42" s="58">
         <f t="shared" si="2"/>
-        <v>0.1866920995712319</v>
+        <v>0.1866997915612354</v>
       </c>
       <c r="G42" s="58">
         <f t="shared" si="2"/>
-        <v>0.11576903327504307</v>
+        <v>0.11577380313005414</v>
       </c>
       <c r="H42" s="58">
         <f t="shared" si="2"/>
-        <v>5.6306602984561471E-2</v>
+        <v>5.6308922899695912E-2</v>
       </c>
       <c r="I42" s="58">
         <f t="shared" si="2"/>
-        <v>2.8900734275262074E-2</v>
+        <v>2.8901925028162911E-2</v>
       </c>
       <c r="J42" s="58">
         <f t="shared" si="2"/>
-        <v>1.1819209114950602E-2</v>
+        <v>1.181969608380784E-2</v>
       </c>
       <c r="K42" s="58">
         <f t="shared" si="2"/>
-        <v>5.0192962990535106E-3</v>
+        <v>5.0195031014680369E-3</v>
       </c>
       <c r="L42" s="58">
         <f t="shared" si="2"/>
-        <v>2.1168079964619668E-3</v>
+        <v>2.1168952120750317E-3</v>
       </c>
       <c r="M42" s="58">
         <f t="shared" si="2"/>
-        <v>8.9011964532370591E-4</v>
+        <v>8.9015631956679275E-4</v>
       </c>
       <c r="N42" s="58">
         <f t="shared" si="2"/>
-        <v>3.7383552588610147E-4</v>
+        <v>3.7385092846153878E-4</v>
       </c>
       <c r="O42" s="58">
         <f t="shared" si="2"/>
-        <v>1.5692356958618703E-4</v>
+        <v>1.5693003506878078E-4</v>
       </c>
       <c r="P42" s="58"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B43" s="38" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="47">
         <f>PRODUCT(C34:$O34)</f>
-        <v>82.079500762148484</v>
+        <v>81.897496357715809</v>
       </c>
       <c r="D43" s="47">
         <f>PRODUCT(D34:$O34)</f>
-        <v>5.7406793687812199</v>
+        <v>5.727949894066434</v>
       </c>
       <c r="E43" s="47">
         <f>PRODUCT(E34:$O34)</f>
-        <v>2.2777534269680322</v>
+        <v>2.2727026999037783</v>
       </c>
       <c r="F43" s="47">
         <f>PRODUCT(F34:$O34)</f>
-        <v>1.4967749069636247</v>
+        <v>1.4934559342239986</v>
       </c>
       <c r="G43" s="47">
         <f>PRODUCT(G34:$O34)</f>
-        <v>1.2158477182265863</v>
+        <v>1.2131516779512206</v>
       </c>
       <c r="H43" s="47">
         <f>PRODUCT(H34:$O34)</f>
-        <v>1.1015656199065365</v>
+        <v>1.0991229905930908</v>
       </c>
       <c r="I43" s="47">
         <f>PRODUCT(I34:$O34)</f>
-        <v>1.0486356720873982</v>
+        <v>1.0463104104911052</v>
       </c>
       <c r="J43" s="47">
         <f>PRODUCT(J34:$O34)</f>
-        <v>1.0257028078402062</v>
+        <v>1.0234283979457448</v>
       </c>
       <c r="K43" s="47">
         <f>PRODUCT(K34:$O34)</f>
-        <v>1.0141449816687749</v>
+        <v>1.0118962002838601</v>
       </c>
       <c r="L43" s="47">
         <f>PRODUCT(L34:$O34)</f>
-        <v>1.0082876486533163</v>
+        <v>1.0060518554127877</v>
       </c>
       <c r="M43" s="47">
         <f>PRODUCT(M34:$O34)</f>
-        <v>1.0053108108062208</v>
+        <v>1.0030816184537874</v>
       </c>
       <c r="N43" s="47">
         <f>PRODUCT(N34:$O34)</f>
-        <v>1.0037957170072496</v>
+        <v>1.0015698842481615</v>
       </c>
       <c r="O43" s="47">
         <f>PRODUCT(O34:$O34)</f>
-        <v>1.0030240234507533</v>
+        <v>1.0007999018573626</v>
       </c>
       <c r="P43" s="47"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C44" s="58">
         <f>1/C43</f>
-        <v>1.2183309970388571E-2</v>
+        <v>1.2210385475425916E-2</v>
       </c>
       <c r="D44" s="58">
         <f t="shared" ref="D44:O44" si="3">1/D43-1/C43</f>
-        <v>0.16201210067006075</v>
+        <v>0.16237214727959992</v>
       </c>
       <c r="E44" s="58">
         <f t="shared" si="3"/>
-        <v>0.26483367308751238</v>
+        <v>0.26542222459503939</v>
       </c>
       <c r="F44" s="58">
         <f t="shared" si="3"/>
-        <v>0.22907404610644461</v>
+        <v>0.22958312742378389</v>
       </c>
       <c r="G44" s="58">
         <f t="shared" si="3"/>
-        <v>0.15436829073015423</v>
+        <v>0.15471135016502291</v>
       </c>
       <c r="H44" s="58">
         <f t="shared" si="3"/>
-        <v>8.5327426756805602E-2</v>
+        <v>8.5517053646262831E-2</v>
       </c>
       <c r="I44" s="58">
         <f t="shared" si="3"/>
-        <v>4.5821200725840949E-2</v>
+        <v>4.5923031193430108E-2</v>
       </c>
       <c r="J44" s="58">
         <f t="shared" si="3"/>
-        <v>2.1321223787343246E-2</v>
+        <v>2.1368606879742624E-2</v>
       </c>
       <c r="K44" s="58">
         <f t="shared" si="3"/>
-        <v>1.1111036341841407E-2</v>
+        <v>1.1135728886082275E-2</v>
       </c>
       <c r="L44" s="58">
         <f t="shared" si="3"/>
-        <v>5.7281637312176503E-3</v>
+        <v>5.7408936811521594E-3</v>
       </c>
       <c r="M44" s="58">
         <f t="shared" si="3"/>
-        <v>2.9367729990064095E-3</v>
+        <v>2.9432995186732258E-3</v>
       </c>
       <c r="N44" s="58">
         <f t="shared" si="3"/>
-        <v>1.5013910738541636E-3</v>
+        <v>1.5047276812031329E-3</v>
       </c>
       <c r="O44" s="58">
         <f t="shared" si="3"/>
-        <v>7.6645771614003433E-4</v>
+        <v>7.681610487979551E-4</v>
       </c>
       <c r="P44" s="58"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C45" s="47">
         <f>PRODUCT(C35:$O35)</f>
-        <v>5.4599958469076109</v>
+        <v>5.4579803386051235</v>
       </c>
       <c r="D45" s="47">
         <f>PRODUCT(D35:$O35)</f>
-        <v>1.6581018315645792</v>
+        <v>1.6574897582037946</v>
       </c>
       <c r="E45" s="47">
         <f>PRODUCT(E35:$O35)</f>
-        <v>1.2145104030553935</v>
+        <v>1.2140620774761346</v>
       </c>
       <c r="F45" s="47">
         <f>PRODUCT(F35:$O35)</f>
-        <v>1.082341034063016</v>
+        <v>1.0819414976162045</v>
       </c>
       <c r="G45" s="47">
         <f>PRODUCT(G35:$O35)</f>
-        <v>1.0349799077333599</v>
+        <v>1.0345978542198717</v>
       </c>
       <c r="H45" s="47">
         <f>PRODUCT(H35:$O35)</f>
-        <v>1.0136595915114737</v>
+        <v>1.0132854082007403</v>
       </c>
       <c r="I45" s="47">
         <f>PRODUCT(I35:$O35)</f>
-        <v>1.0060518978898814</v>
+        <v>1.0056805228907448</v>
       </c>
       <c r="J45" s="47">
         <f>PRODUCT(J35:$O35)</f>
-        <v>1.0033591799141925</v>
+        <v>1.0029887989076502</v>
       </c>
       <c r="K45" s="47">
         <f>PRODUCT(K35:$O35)</f>
-        <v>1.0018885154616688</v>
+        <v>1.0015732402173452</v>
       </c>
       <c r="L45" s="47">
         <f>PRODUCT(L35:$O35)</f>
-        <v>1.0010847583995337</v>
+        <v>1.0008283101980939</v>
       </c>
       <c r="M45" s="47">
         <f>PRODUCT(M35:$O35)</f>
-        <v>1.0006453241744668</v>
+        <v>1.0004361567843369</v>
       </c>
       <c r="N45" s="47">
         <f>PRODUCT(N35:$O35)</f>
-        <v>1.0004050266319942</v>
+        <v>1.0002296772160837</v>
       </c>
       <c r="O45" s="47">
         <f>PRODUCT(O35:$O35)</f>
-        <v>1.0002736094862021</v>
+        <v>1.0001209494166381</v>
       </c>
       <c r="P45" s="47"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C46" s="58">
         <f>1/C45</f>
-        <v>0.18315032246157698</v>
+        <v>0.18321795572014948</v>
       </c>
       <c r="D46" s="58">
         <f t="shared" ref="D46:O46" si="4">1/D45-1/C45</f>
-        <v>0.41994894500404273</v>
+        <v>0.4201040226211768</v>
       </c>
       <c r="E46" s="58">
         <f t="shared" si="4"/>
-        <v>0.22027778841159562</v>
+        <v>0.22035913200095558</v>
       </c>
       <c r="F46" s="58">
         <f t="shared" si="4"/>
-        <v>0.10054615180722892</v>
+        <v>0.10058328121979176</v>
       </c>
       <c r="G46" s="58">
         <f t="shared" si="4"/>
-        <v>4.2279123904806593E-2</v>
+        <v>4.2294736625989482E-2</v>
       </c>
       <c r="H46" s="58">
         <f t="shared" si="4"/>
-        <v>2.0322147016919367E-2</v>
+        <v>2.0329651524722103E-2</v>
       </c>
       <c r="I46" s="58">
         <f t="shared" si="4"/>
-        <v>7.4600286517806369E-3</v>
+        <v>7.4627834711008534E-3</v>
       </c>
       <c r="J46" s="58">
         <f t="shared" si="4"/>
-        <v>2.6675591391694953E-3</v>
+        <v>2.6685442082350352E-3</v>
       </c>
       <c r="K46" s="58">
         <f t="shared" si="4"/>
-        <v>1.4629779091829276E-3</v>
+        <v>1.409123587528649E-3</v>
       </c>
       <c r="L46" s="58">
         <f t="shared" si="4"/>
-        <v>8.0137271989544345E-4</v>
+        <v>7.4314435220912411E-4</v>
       </c>
       <c r="M46" s="58">
         <f t="shared" si="4"/>
-        <v>4.3867497405702949E-4</v>
+        <v>3.9165803360952101E-4</v>
       </c>
       <c r="N46" s="58">
         <f t="shared" si="4"/>
-        <v>2.4004534790644794E-4</v>
+        <v>2.0634215795845012E-4</v>
       </c>
       <c r="O46" s="58">
         <f t="shared" si="4"/>
-        <v>1.3132800730919492E-4</v>
+        <v>1.0868968692734349E-4</v>
       </c>
       <c r="P46" s="58"/>
     </row>
@@ -15182,20 +15342,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E262303B-5149-4F07-A751-B8E65AA820B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E262303B-5149-4F07-A751-B8E65AA820B6}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
@@ -15222,7 +15382,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>33</v>
       </c>
@@ -15284,7 +15444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="1"/>
@@ -15305,7 +15465,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f>'CL quarter'!A4</f>
         <v>0</v>
@@ -15362,9 +15522,8 @@
         <f>Data!M1</f>
         <v>1</v>
       </c>
-      <c r="O4" s="28">
-        <f>SUM($C4:N4)*('CL quarter'!$N$32-1)</f>
-        <v>0.33705865398396329</v>
+      <c r="O4" s="61">
+        <v>1</v>
       </c>
       <c r="P4" s="27">
         <f>SUM(C4:N4)</f>
@@ -15376,18 +15535,18 @@
       </c>
       <c r="R4" s="20">
         <f t="shared" ref="R4:R19" si="1">S4-P4</f>
-        <v>0.33705865398405876</v>
+        <v>1</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" ref="S4:S19" si="2">SUM(C4:O4)</f>
-        <v>1078.3370586539841</v>
+        <v>1079</v>
       </c>
       <c r="T4" s="26">
         <f t="shared" ref="T4:T19" si="3">S4/B4</f>
-        <v>9.9349277561634794E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9410355629261107E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>'CL quarter'!A5</f>
         <v>1</v>
@@ -15469,7 +15628,7 @@
         <v>0.19804406704747146</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f>'CL quarter'!A6</f>
         <v>2</v>
@@ -15526,9 +15685,8 @@
         <f>Data!M3</f>
         <v>0</v>
       </c>
-      <c r="O6" s="28">
-        <f>SUM($C6:N6)*('CL quarter'!$N$34-1)</f>
-        <v>0.77321380759208913</v>
+      <c r="O6" s="61">
+        <v>1</v>
       </c>
       <c r="P6" s="27">
         <f>SUM(C6:N6)</f>
@@ -15540,18 +15698,18 @@
       </c>
       <c r="R6" s="20">
         <f t="shared" si="1"/>
-        <v>0.77321380759212843</v>
+        <v>1</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="2"/>
-        <v>1005.7732138075921</v>
+        <v>1006</v>
       </c>
       <c r="T6" s="26">
         <f t="shared" si="3"/>
-        <v>9.9917863481779473E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9940393403536665E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <f>'CL quarter'!A7</f>
         <v>3</v>
@@ -15610,7 +15768,7 @@
       </c>
       <c r="O7" s="28">
         <f>SUM($C7:N7)*('CL quarter'!$N$35-1)</f>
-        <v>0.27747709154850497</v>
+        <v>0.22960534179713932</v>
       </c>
       <c r="P7" s="27">
         <f>SUM(C7:N7)</f>
@@ -15622,18 +15780,18 @@
       </c>
       <c r="R7" s="20">
         <f t="shared" si="1"/>
-        <v>0.27747709154846234</v>
+        <v>0.22960534179719616</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="2"/>
-        <v>2112.2774770915485</v>
+        <v>2112.2296053417972</v>
       </c>
       <c r="T7" s="26">
         <f t="shared" si="3"/>
-        <v>0.20404535134191928</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.20404072694569139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <f>'CL quarter'!A8</f>
         <v>4</v>
@@ -15692,7 +15850,7 @@
       </c>
       <c r="O8" s="28">
         <f>SUM($C8:N8)*('CL quarter'!$N$32-1)</f>
-        <v>0.3132957062077284</v>
+        <v>8.0325599124737135E-2</v>
       </c>
       <c r="P8" s="27">
         <f>SUM(C8:N8)</f>
@@ -15704,18 +15862,18 @@
       </c>
       <c r="R8" s="20">
         <f t="shared" si="1"/>
-        <v>0.31329570620778213</v>
+        <v>8.0325599124762448E-2</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="2"/>
-        <v>1002.3132957062078</v>
+        <v>1002.0803255991248</v>
       </c>
       <c r="T8" s="26">
         <f t="shared" si="3"/>
-        <v>0.10222471144377437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10220095110648901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <f>'CL quarter'!A9</f>
         <v>5</v>
@@ -15797,7 +15955,7 @@
         <v>0.19937316413147535</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <f>'CL quarter'!A10</f>
         <v>6</v>
@@ -15879,7 +16037,7 @@
         <v>9.9854291137689941E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <f>'CL quarter'!A11</f>
         <v>7</v>
@@ -15926,19 +16084,19 @@
       </c>
       <c r="L11" s="28">
         <f>SUM($C11:K11)*('CL quarter'!K$35-1)</f>
-        <v>1.4178968961622189</v>
+        <v>1.3144576353329929</v>
       </c>
       <c r="M11" s="28">
         <f>SUM($C11:L11)*('CL quarter'!L$35-1)</f>
-        <v>0.77616303712113688</v>
+        <v>0.69275624740666331</v>
       </c>
       <c r="N11" s="28">
         <f>SUM($C11:M11)*('CL quarter'!M$35-1)</f>
-        <v>0.42472066403626568</v>
+        <v>0.36497354008444799</v>
       </c>
       <c r="O11" s="28">
         <f>SUM($C11:N11)*('CL quarter'!$N$35-1)</f>
-        <v>0.23236325534953015</v>
+        <v>0.19224796426030891</v>
       </c>
       <c r="P11" s="27">
         <f>SUM(C11:K11)</f>
@@ -15950,18 +16108,18 @@
       </c>
       <c r="R11" s="20">
         <f t="shared" si="1"/>
-        <v>2.8511438526691109</v>
+        <v>2.5644353870843588</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="2"/>
-        <v>1768.8511438526691</v>
+        <v>1768.5644353870844</v>
       </c>
       <c r="T11" s="26">
         <f t="shared" si="3"/>
-        <v>0.20477554339577092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.20474235186236217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>'CL quarter'!A12</f>
         <v>8</v>
@@ -16004,23 +16162,23 @@
       </c>
       <c r="K12" s="28">
         <f>SUM($C12:J12)*('CL quarter'!J$32-1)</f>
-        <v>2.2302203558499816</v>
+        <v>2.1397307233060339</v>
       </c>
       <c r="L12" s="28">
         <f>SUM($C12:K12)*('CL quarter'!K$32-1)</f>
-        <v>1.30177074740049</v>
+        <v>0.89788361099853875</v>
       </c>
       <c r="M12" s="28">
         <f>SUM($C12:L12)*('CL quarter'!L$32-1)</f>
-        <v>0.75897609190024551</v>
+        <v>0.37620314907978547</v>
       </c>
       <c r="N12" s="28">
         <f>SUM($C12:M12)*('CL quarter'!M$32-1)</f>
-        <v>0.44221590632445146</v>
+        <v>0.15752478390999047</v>
       </c>
       <c r="O12" s="28">
         <f>SUM($C12:N12)*('CL quarter'!$N$32-1)</f>
-        <v>0.2575569554156853</v>
+        <v>6.5941652585289043E-2</v>
       </c>
       <c r="P12" s="27">
         <f>SUM(C12:J12)</f>
@@ -16032,18 +16190,18 @@
       </c>
       <c r="R12" s="20">
         <f t="shared" si="1"/>
-        <v>4.990740056890786</v>
+        <v>3.6372839198794509</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="2"/>
-        <v>823.99074005689079</v>
+        <v>822.63728391987945</v>
       </c>
       <c r="T12" s="26">
         <f t="shared" si="3"/>
-        <v>9.9240122854015511E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9077114768141572E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <f>'CL quarter'!A13</f>
         <v>9</v>
@@ -16125,7 +16283,7 @@
         <v>0.19987387778650234</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <f>'CL quarter'!A14</f>
         <v>10</v>
@@ -16207,7 +16365,7 @@
         <v>0.1039087369575771</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <f>'CL quarter'!A15</f>
         <v>11</v>
@@ -16250,23 +16408,23 @@
       </c>
       <c r="K15" s="28">
         <f>SUM($C15:J15)*('CL quarter'!J$35-1)</f>
-        <v>2.5483190638809572</v>
+        <v>2.4536057118997059</v>
       </c>
       <c r="L15" s="28">
         <f>SUM($C15:K15)*('CL quarter'!K$35-1)</f>
-        <v>1.3958880490021333</v>
+        <v>1.2939838943036324</v>
       </c>
       <c r="M15" s="28">
         <f>SUM($C15:L15)*('CL quarter'!L$35-1)</f>
-        <v>0.76411529676600709</v>
+        <v>0.68196600843309418</v>
       </c>
       <c r="N15" s="28">
         <f>SUM($C15:M15)*('CL quarter'!M$35-1)</f>
-        <v>0.4181280745427664</v>
+        <v>0.35928878194436165</v>
       </c>
       <c r="O15" s="28">
         <f>SUM($C15:N15)*('CL quarter'!$N$35-1)</f>
-        <v>0.2287564716782704</v>
+        <v>0.18925354669378902</v>
       </c>
       <c r="P15" s="27">
         <f>SUM(C15:G15)</f>
@@ -16278,18 +16436,18 @@
       </c>
       <c r="R15" s="20">
         <f t="shared" si="1"/>
-        <v>58.394722599919533</v>
+        <v>58.017613587324149</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="2"/>
-        <v>1741.3947225999195</v>
+        <v>1741.0176135873241</v>
       </c>
       <c r="T15" s="26">
         <f t="shared" si="3"/>
-        <v>0.20696395562157352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.20691913639022155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <f>'CL quarter'!A16</f>
         <v>12</v>
@@ -16328,27 +16486,27 @@
       </c>
       <c r="J16" s="28">
         <f>SUM($C16:I16)*('CL quarter'!I$32-1)</f>
-        <v>3.4430585575101977</v>
+        <v>4.5944519107178774</v>
       </c>
       <c r="K16" s="28">
         <f>SUM($C16:J16)*('CL quarter'!J$32-1)</f>
-        <v>2.0136176240851267</v>
+        <v>1.9349246422221318</v>
       </c>
       <c r="L16" s="28">
         <f>SUM($C16:K16)*('CL quarter'!K$32-1)</f>
-        <v>1.1753405947570934</v>
+        <v>0.81194194477151571</v>
       </c>
       <c r="M16" s="28">
         <f>SUM($C16:L16)*('CL quarter'!L$32-1)</f>
-        <v>0.68526306420834637</v>
+        <v>0.34019455612215938</v>
       </c>
       <c r="N16" s="28">
         <f>SUM($C16:M16)*('CL quarter'!M$32-1)</f>
-        <v>0.399267157745192</v>
+        <v>0.14244717002390925</v>
       </c>
       <c r="O16" s="28">
         <f>SUM($C16:N16)*('CL quarter'!$N$32-1)</f>
-        <v>0.23254259305380351</v>
+        <v>5.9629993225964316E-2</v>
       </c>
       <c r="P16" s="27">
         <f>SUM(C16:F16)</f>
@@ -16360,18 +16518,18 @@
       </c>
       <c r="R16" s="20">
         <f t="shared" si="1"/>
-        <v>97.963380976830194</v>
+        <v>97.89788160255398</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="2"/>
-        <v>743.96338097683019</v>
+        <v>743.89788160255398</v>
       </c>
       <c r="T16" s="26">
         <f t="shared" si="3"/>
-        <v>9.6181432576190065E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.6172964654499551E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <f>'CL quarter'!A17</f>
         <v>13</v>
@@ -16453,7 +16611,7 @@
         <v>0.18221818695261624</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <f>'CL quarter'!A18</f>
         <v>14</v>
@@ -16535,7 +16693,7 @@
         <v>0.11846905663592197</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <f>'CL quarter'!A19</f>
         <v>15</v>
@@ -16578,23 +16736,23 @@
       </c>
       <c r="K19" s="28">
         <f>SUM($C19:J19)*('CL quarter'!J$35-1)</f>
-        <v>2.5800766185670687</v>
+        <v>2.4841829338332659</v>
       </c>
       <c r="L19" s="28">
         <f>SUM($C19:K19)*('CL quarter'!K$35-1)</f>
-        <v>1.4132838263520711</v>
+        <v>1.3101097259817549</v>
       </c>
       <c r="M19" s="28">
         <f>SUM($C19:L19)*('CL quarter'!L$35-1)</f>
-        <v>0.77363782228782463</v>
+        <v>0.69046477654806471</v>
       </c>
       <c r="N19" s="28">
         <f>SUM($C19:M19)*('CL quarter'!M$35-1)</f>
-        <v>0.42333885265187315</v>
+        <v>0.36376629549532463</v>
       </c>
       <c r="O19" s="28">
         <f>SUM($C19:N19)*('CL quarter'!$N$35-1)</f>
-        <v>0.23160727096086131</v>
+        <v>0.19161205428565831</v>
       </c>
       <c r="P19" s="27">
         <f>SUM(C19)</f>
@@ -16606,18 +16764,18 @@
       </c>
       <c r="R19" s="20">
         <f t="shared" si="1"/>
-        <v>1440.096258689694</v>
+        <v>1439.7144500850181</v>
       </c>
       <c r="S19" s="20">
         <f t="shared" si="2"/>
-        <v>1763.096258689694</v>
+        <v>1762.7144500850181</v>
       </c>
       <c r="T19" s="26">
         <f t="shared" si="3"/>
-        <v>0.20099136555970062</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.20094783972697425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -16638,7 +16796,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -16658,14 +16816,15 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="24">
         <f>SUM(R4:R19)</f>
-        <v>3219.4095281446462</v>
+        <v>3217.5538322320922</v>
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16674,12 +16833,12 @@
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>45</v>
       </c>
@@ -16696,7 +16855,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="22">
         <v>91</v>
       </c>
@@ -16741,23 +16900,23 @@
         <v>1078</v>
       </c>
       <c r="Q2" s="20">
-        <f t="shared" ref="Q2:Q17" si="0">S2-P2</f>
+        <f>S2-P2</f>
         <v>1</v>
       </c>
       <c r="R2" s="33">
         <f>Q2/'CL quarter IBNR'!R4</f>
-        <v>2.9668426791002824</v>
+        <v>1</v>
       </c>
       <c r="S2" s="34">
-        <f t="shared" ref="S2:S17" si="1">SUM(C2:O2)</f>
+        <f t="shared" ref="S2:S17" si="0">SUM(C2:O2)</f>
         <v>1079</v>
       </c>
       <c r="T2" s="33">
         <f>S2/'CL quarter IBNR'!S4</f>
-        <v>1.0006147811954487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="22">
         <v>63</v>
       </c>
@@ -16802,7 +16961,7 @@
         <v>2013</v>
       </c>
       <c r="Q3" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q2:Q17" si="1">S3-P3</f>
         <v>0</v>
       </c>
       <c r="R3" s="33">
@@ -16810,7 +16969,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2013</v>
       </c>
       <c r="T3" s="33">
@@ -16818,7 +16977,7 @@
         <v>0.99984305215532276</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="22">
         <v>12</v>
       </c>
@@ -16863,23 +17022,23 @@
         <v>1005</v>
       </c>
       <c r="Q4" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R4" s="33">
         <f>Q4/'CL quarter IBNR'!R6</f>
-        <v>1.2933033401383613</v>
+        <v>1</v>
       </c>
       <c r="S4" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1006</v>
       </c>
       <c r="T4" s="33">
         <f>S4/'CL quarter IBNR'!S6</f>
-        <v>1.0002254844226257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="22">
         <v>385</v>
       </c>
@@ -16924,7 +17083,7 @@
         <v>2112</v>
       </c>
       <c r="Q5" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R5" s="33">
@@ -16932,15 +17091,15 @@
         <v>0</v>
       </c>
       <c r="S5" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2112</v>
       </c>
       <c r="T5" s="33">
         <f>S5/'CL quarter IBNR'!S7</f>
-        <v>0.99986863606010201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99989129716711833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="22">
         <v>92</v>
       </c>
@@ -16985,7 +17144,7 @@
         <v>1002</v>
       </c>
       <c r="Q6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R6" s="33">
@@ -16993,15 +17152,15 @@
         <v>0</v>
       </c>
       <c r="S6" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1002</v>
       </c>
       <c r="T6" s="33">
         <f>S6/'CL quarter IBNR'!S8</f>
-        <v>0.99968742736672267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99991984115736754</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="22">
         <v>69</v>
       </c>
@@ -17046,7 +17205,7 @@
         <v>2067</v>
       </c>
       <c r="Q7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="R7" s="33">
@@ -17054,7 +17213,7 @@
         <v>2.7326597043240635</v>
       </c>
       <c r="S7" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2070</v>
       </c>
       <c r="T7" s="33">
@@ -17062,7 +17221,7 @@
         <v>1.0009197671576269</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="22">
         <v>6</v>
       </c>
@@ -17107,7 +17266,7 @@
         <v>834</v>
       </c>
       <c r="Q8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R8" s="33">
@@ -17115,7 +17274,7 @@
         <v>0.91394554019497987</v>
       </c>
       <c r="S8" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>838</v>
       </c>
       <c r="T8" s="33">
@@ -17123,7 +17282,7 @@
         <v>0.99955076468106341</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="22">
         <v>315</v>
       </c>
@@ -17168,23 +17327,23 @@
         <v>1766</v>
       </c>
       <c r="Q9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R9" s="33">
         <f>Q9/'CL quarter IBNR'!R11</f>
-        <v>0.35073642428243162</v>
+        <v>0.3899493841944493</v>
       </c>
       <c r="S9" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1767</v>
       </c>
       <c r="T9" s="33">
         <f>S9/'CL quarter IBNR'!S11</f>
-        <v>0.99895347674726476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99911542075833837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="22">
         <v>78</v>
       </c>
@@ -17229,23 +17388,23 @@
         <v>819</v>
       </c>
       <c r="Q10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="R10" s="33">
         <f>Q10/'CL quarter IBNR'!R12</f>
-        <v>0.80148433987803935</v>
+        <v>1.0997216846719435</v>
       </c>
       <c r="S10" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>823</v>
       </c>
       <c r="T10" s="33">
         <f>S10/'CL quarter IBNR'!S12</f>
-        <v>0.99879763205006111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0004409186007133</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="22">
         <v>85</v>
       </c>
@@ -17290,7 +17449,7 @@
         <v>1893</v>
       </c>
       <c r="Q11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="R11" s="33">
@@ -17298,7 +17457,7 @@
         <v>1.1426931626909136</v>
       </c>
       <c r="S11" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1938</v>
       </c>
       <c r="T11" s="33">
@@ -17306,7 +17465,7 @@
         <v>1.0029079930803571</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="22">
         <v>18</v>
       </c>
@@ -17351,7 +17510,7 @@
         <v>880</v>
       </c>
       <c r="Q12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="R12" s="33">
@@ -17359,7 +17518,7 @@
         <v>0.94846852036867513</v>
       </c>
       <c r="S12" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>962</v>
       </c>
       <c r="T12" s="33">
@@ -17367,7 +17526,7 @@
         <v>0.99539020265444533</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="22">
         <v>331</v>
       </c>
@@ -17412,23 +17571,23 @@
         <v>1683</v>
       </c>
       <c r="Q13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="R13" s="33">
         <f>Q13/'CL quarter IBNR'!R15</f>
-        <v>0.821992088717725</v>
+        <v>0.82733495971449567</v>
       </c>
       <c r="S13" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1731</v>
       </c>
       <c r="T13" s="33">
         <f>S13/'CL quarter IBNR'!S15</f>
-        <v>0.9940308061894203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.99424611588697076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="22">
         <v>67</v>
       </c>
@@ -17473,23 +17632,23 @@
         <v>646</v>
       </c>
       <c r="Q14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="R14" s="33">
         <f>Q14/'CL quarter IBNR'!R16</f>
-        <v>1.0412053869815348</v>
+        <v>1.0419020139179294</v>
       </c>
       <c r="S14" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>748</v>
       </c>
       <c r="T14" s="33">
         <f>S14/'CL quarter IBNR'!S16</f>
-        <v>1.0054258302577603</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1.0055143568746412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="22">
         <v>60</v>
       </c>
@@ -17534,7 +17693,7 @@
         <v>916</v>
       </c>
       <c r="Q15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>684</v>
       </c>
       <c r="R15" s="33">
@@ -17542,7 +17701,7 @@
         <v>1.0829998037980855</v>
       </c>
       <c r="S15" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
       <c r="T15" s="33">
@@ -17550,7 +17709,7 @@
         <v>1.0338728660174856</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="22">
         <v>11</v>
       </c>
@@ -17595,7 +17754,7 @@
         <v>180</v>
       </c>
       <c r="Q16" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>751</v>
       </c>
       <c r="R16" s="33">
@@ -17603,7 +17762,7 @@
         <v>0.88331438549843888</v>
       </c>
       <c r="S16" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>931</v>
       </c>
       <c r="T16" s="57">
@@ -17621,7 +17780,7 @@
       <c r="AA16" s="56"/>
       <c r="AB16" s="56"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="22">
         <v>323</v>
       </c>
@@ -17666,20 +17825,20 @@
         <v>323</v>
       </c>
       <c r="Q17" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1329</v>
       </c>
       <c r="R17" s="33">
         <f>Q17/'CL quarter IBNR'!R19</f>
-        <v>0.9228549772146637</v>
+        <v>0.92309971600376717</v>
       </c>
       <c r="S17" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1652</v>
       </c>
       <c r="T17" s="57">
         <f>S17/'CL quarter IBNR'!S19</f>
-        <v>0.93698797887969032</v>
+        <v>0.93719093295021305</v>
       </c>
       <c r="U17" s="56" t="s">
         <v>67</v>
@@ -17692,7 +17851,7 @@
       <c r="AA17" s="56"/>
       <c r="AB17" s="56"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -17710,7 +17869,7 @@
       <c r="R18" s="33"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>51</v>
       </c>
@@ -17721,48 +17880,48 @@
       </c>
       <c r="R19" s="33">
         <f>Q19/'CL quarter IBNR'!R21</f>
-        <v>0.94893177562302988</v>
+        <v>0.94947906369003165</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="35">
         <f>AVERAGE(T2:T17)</f>
-        <v>0.9919236655966498</v>
+        <v>0.99203159248579165</v>
       </c>
       <c r="U19" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O20">
         <f>IF('CL quarter IBNR'!O4&gt;0,O2/'CL quarter IBNR'!O4,"")</f>
-        <v>2.9668426791011231</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O21">
         <f>IF('CL quarter IBNR'!O5&gt;0,O3/'CL quarter IBNR'!O5,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O22">
         <f>IF('CL quarter IBNR'!O6&gt;0,O4/'CL quarter IBNR'!O6,"")</f>
-        <v>1.2933033401384271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O23">
         <f>IF('CL quarter IBNR'!O7&gt;0,O5/'CL quarter IBNR'!O7,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O24">
         <f>IF('CL quarter IBNR'!O8&gt;0,O6/'CL quarter IBNR'!O8,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="M25">
         <f>IF('CL quarter IBNR'!M9&gt;0,M7/'CL quarter IBNR'!M9,"")</f>
         <v>1</v>
@@ -17776,7 +17935,7 @@
         <v>3.0808713582153486</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="L26">
         <f>IF('CL quarter IBNR'!L10&gt;0,L8/'CL quarter IBNR'!L10,"")</f>
         <v>1</v>
@@ -17794,7 +17953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K27">
         <f>IF('CL quarter IBNR'!K11&gt;0,K9/'CL quarter IBNR'!K11,"")</f>
         <v>1</v>
@@ -17805,7 +17964,7 @@
       </c>
       <c r="M27">
         <f>IF('CL quarter IBNR'!M11&gt;0,M9/'CL quarter IBNR'!M11,"")</f>
-        <v>1.2883891040587243</v>
+        <v>1.443509176197985</v>
       </c>
       <c r="N27">
         <f>IF('CL quarter IBNR'!N11&gt;0,N9/'CL quarter IBNR'!N11,"")</f>
@@ -17816,14 +17975,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J28">
         <f>IF('CL quarter IBNR'!J12&gt;0,J10/'CL quarter IBNR'!J12,"")</f>
         <v>1</v>
       </c>
       <c r="K28">
         <f>IF('CL quarter IBNR'!K12&gt;0,K10/'CL quarter IBNR'!K12,"")</f>
-        <v>1.3451585589427733</v>
+        <v>1.4020455785972872</v>
       </c>
       <c r="L28">
         <f>IF('CL quarter IBNR'!L12&gt;0,L10/'CL quarter IBNR'!L12,"")</f>
@@ -17835,14 +17994,14 @@
       </c>
       <c r="N28">
         <f>IF('CL quarter IBNR'!N12&gt;0,N10/'CL quarter IBNR'!N12,"")</f>
-        <v>2.2613388295135302</v>
+        <v>6.3482074069779344</v>
       </c>
       <c r="O28">
         <f>IF('CL quarter IBNR'!O12&gt;0,O10/'CL quarter IBNR'!O12,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I29">
         <f>IF('CL quarter IBNR'!I13&gt;0,I11/'CL quarter IBNR'!I13,"")</f>
         <v>1</v>
@@ -17872,7 +18031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H30">
         <f>IF('CL quarter IBNR'!H14&gt;0,H12/'CL quarter IBNR'!H14,"")</f>
         <v>1</v>
@@ -17906,7 +18065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G31">
         <f>IF('CL quarter IBNR'!G15&gt;0,G13/'CL quarter IBNR'!G15,"")</f>
         <v>1</v>
@@ -17925,7 +18084,7 @@
       </c>
       <c r="K31">
         <f>IF('CL quarter IBNR'!K15&gt;0,K13/'CL quarter IBNR'!K15,"")</f>
-        <v>1.1772466181809889</v>
+        <v>1.2226903391406143</v>
       </c>
       <c r="L31">
         <f>IF('CL quarter IBNR'!L15&gt;0,L13/'CL quarter IBNR'!L15,"")</f>
@@ -17933,7 +18092,7 @@
       </c>
       <c r="M31">
         <f>IF('CL quarter IBNR'!M15&gt;0,M13/'CL quarter IBNR'!M15,"")</f>
-        <v>1.3087030245727789</v>
+        <v>1.4663487441223506</v>
       </c>
       <c r="N31">
         <f>IF('CL quarter IBNR'!N15&gt;0,N13/'CL quarter IBNR'!N15,"")</f>
@@ -17944,7 +18103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="F32">
         <f>IF('CL quarter IBNR'!F16&gt;0,F14/'CL quarter IBNR'!F16,"")</f>
         <v>1</v>
@@ -17963,19 +18122,19 @@
       </c>
       <c r="J32">
         <f>IF('CL quarter IBNR'!J16&gt;0,J14/'CL quarter IBNR'!J16,"")</f>
-        <v>0.58087888038891611</v>
+        <v>0.43530763600646816</v>
       </c>
       <c r="K32">
         <f>IF('CL quarter IBNR'!K16&gt;0,K14/'CL quarter IBNR'!K16,"")</f>
-        <v>0.99323723435758382</v>
+        <v>1.0336319856380214</v>
       </c>
       <c r="L32">
         <f>IF('CL quarter IBNR'!L16&gt;0,L14/'CL quarter IBNR'!L16,"")</f>
-        <v>1.7016344104181462</v>
+        <v>2.4632302997510611</v>
       </c>
       <c r="M32">
         <f>IF('CL quarter IBNR'!M16&gt;0,M14/'CL quarter IBNR'!M16,"")</f>
-        <v>1.4592935942859477</v>
+        <v>2.9394944216594494</v>
       </c>
       <c r="N32">
         <f>IF('CL quarter IBNR'!N16&gt;0,N14/'CL quarter IBNR'!N16,"")</f>
@@ -17986,7 +18145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>IF('CL quarter IBNR'!E17&gt;0,E15/'CL quarter IBNR'!E17,"")</f>
         <v>1</v>
@@ -18032,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D34">
         <f>IF('CL quarter IBNR'!D18&gt;0,D16/'CL quarter IBNR'!D18,"")</f>
         <v>1</v>
@@ -18082,7 +18241,7 @@
         <v>1.262629706710547</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>IF('CL quarter IBNR'!C19&gt;0,C17/'CL quarter IBNR'!C19,"")</f>
         <v>1</v>
@@ -18117,15 +18276,15 @@
       </c>
       <c r="K35">
         <f>IF('CL quarter IBNR'!K19&gt;0,K17/'CL quarter IBNR'!K19,"")</f>
-        <v>0.38758538905537743</v>
+        <v>0.40254684402687319</v>
       </c>
       <c r="L35">
         <f>IF('CL quarter IBNR'!L19&gt;0,L17/'CL quarter IBNR'!L19,"")</f>
-        <v>0.70757195501286685</v>
+        <v>0.76329484482731513</v>
       </c>
       <c r="M35">
         <f>IF('CL quarter IBNR'!M19&gt;0,M17/'CL quarter IBNR'!M19,"")</f>
-        <v>1.2925945076505831</v>
+        <v>1.4482998032128984</v>
       </c>
       <c r="N35">
         <f>IF('CL quarter IBNR'!N19&gt;0,N17/'CL quarter IBNR'!N19,"")</f>
@@ -18157,16 +18316,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9978AE46-9BB1-4BDD-B67D-75731F9570E6}">
   <dimension ref="A1:S49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="18" width="6.7109375" customWidth="1"/>
+    <col min="3" max="18" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
@@ -18188,7 +18347,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -18247,7 +18406,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="14"/>
       <c r="C3" s="1"/>
@@ -18263,7 +18422,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -18336,7 +18495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -18406,7 +18565,7 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -18473,7 +18632,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -18537,7 +18696,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -18598,7 +18757,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -18656,7 +18815,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -18711,7 +18870,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -18763,7 +18922,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -18812,7 +18971,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -18858,7 +19017,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -18901,7 +19060,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -18941,7 +19100,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -18978,7 +19137,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -19012,7 +19171,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -19043,7 +19202,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -19071,7 +19230,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -19086,7 +19245,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -19106,7 +19265,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -19123,7 +19282,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -19138,7 +19297,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -19208,7 +19367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -19223,7 +19382,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -19278,7 +19437,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -19293,7 +19452,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
@@ -19355,7 +19514,7 @@
         <v>3.2168821977739175E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -19371,7 +19530,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -19387,7 +19546,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -19457,7 +19616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>14</v>
       </c>
@@ -19475,7 +19634,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -19491,7 +19650,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>13</v>
       </c>
@@ -19552,7 +19711,7 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
     </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
@@ -19570,7 +19729,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -19586,7 +19745,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -19602,7 +19761,7 @@
       <c r="M37" s="5"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>11</v>
       </c>
@@ -19620,7 +19779,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -19637,7 +19796,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>9</v>
       </c>
@@ -19667,7 +19826,7 @@
       </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -19685,7 +19844,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -19723,7 +19882,7 @@
         <v>-2.9324886571643161</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -19761,7 +19920,7 @@
         <v>5.3264316441573117E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -19777,7 +19936,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -19795,7 +19954,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
@@ -19816,7 +19975,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -19837,7 +19996,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -19858,7 +20017,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -19881,25 +20040,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFD1511-CD89-4704-8C13-D496E0EDB738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFD1511-CD89-4704-8C13-D496E0EDB738}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="14" width="6.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
@@ -19926,7 +20085,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>33</v>
       </c>
@@ -19988,7 +20147,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="1"/>
@@ -20009,7 +20168,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f>Exposure!A4</f>
         <v>0</v>
@@ -20066,9 +20225,8 @@
         <f>Data!M1</f>
         <v>1</v>
       </c>
-      <c r="O4" s="28">
-        <f>$B4*Exposure!O$34/1000</f>
-        <v>0.46755028812450611</v>
+      <c r="O4" s="61">
+        <v>1</v>
       </c>
       <c r="P4" s="27">
         <f>SUM(C4:N4)</f>
@@ -20080,18 +20238,18 @@
       </c>
       <c r="R4" s="20">
         <f t="shared" ref="R4:R19" si="1">S4-P4</f>
-        <v>0.46755028812458477</v>
+        <v>1</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" ref="S4:S19" si="2">SUM(C4:O4)</f>
-        <v>1078.4675502881246</v>
+        <v>1079</v>
       </c>
       <c r="T4" s="26">
         <f t="shared" ref="T4:T19" si="3">S4/B4</f>
-        <v>9.9361300008119088E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9410355629261107E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>Exposure!A5</f>
         <v>1</v>
@@ -20173,7 +20331,7 @@
         <v>0.19805606076978319</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f>Exposure!A6</f>
         <v>2</v>
@@ -20230,9 +20388,8 @@
         <f>Data!M3</f>
         <v>0</v>
       </c>
-      <c r="O6" s="28">
-        <f>$B6*Exposure!O$34/1000</f>
-        <v>0.43360615443719164</v>
+      <c r="O6" s="61">
+        <v>1</v>
       </c>
       <c r="P6" s="27">
         <f>SUM(C6:N6)</f>
@@ -20244,18 +20401,18 @@
       </c>
       <c r="R6" s="20">
         <f t="shared" si="1"/>
-        <v>0.43360615443714323</v>
+        <v>1</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="2"/>
-        <v>1005.4336061544371</v>
+        <v>1006</v>
       </c>
       <c r="T6" s="26">
         <f t="shared" si="3"/>
-        <v>9.9884125387883688E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9940393403536665E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <f>Exposure!A7</f>
         <v>3</v>
@@ -20337,7 +20494,7 @@
         <v>0.20406162345243509</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <f>Exposure!A8</f>
         <v>4</v>
@@ -20419,7 +20576,7 @@
         <v>0.10223583510831831</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <f>Exposure!A9</f>
         <v>5</v>
@@ -20501,7 +20658,7 @@
         <v>0.19936366926989341</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <f>Exposure!A10</f>
         <v>6</v>
@@ -20583,7 +20740,7 @@
         <v>9.9548482558705645E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <f>Exposure!A11</f>
         <v>7</v>
@@ -20665,7 +20822,7 @@
         <v>0.20492736735553099</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>Exposure!A12</f>
         <v>8</v>
@@ -20747,7 +20904,7 @@
         <v>9.9716806871415486E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <f>Exposure!A13</f>
         <v>9</v>
@@ -20829,7 +20986,7 @@
         <v>0.19817789260584248</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <f>Exposure!A14</f>
         <v>10</v>
@@ -20911,7 +21068,7 @@
         <v>0.1003751532344606</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <f>Exposure!A15</f>
         <v>11</v>
@@ -20993,7 +21150,7 @@
         <v>0.2129982954626817</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <f>Exposure!A16</f>
         <v>12</v>
@@ -21075,7 +21232,7 @@
         <v>0.11029243644382421</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <f>Exposure!A17</f>
         <v>13</v>
@@ -21157,7 +21314,7 @@
         <v>0.15829603407083809</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <f>Exposure!A18</f>
         <v>14</v>
@@ -21239,7 +21396,7 @@
         <v>0.1106548686045858</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <f>Exposure!A19</f>
         <v>15</v>
@@ -21321,7 +21478,7 @@
         <v>0.17205242713066876</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -21342,7 +21499,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -21362,19 +21519,19 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="24">
         <f>SUM(R4:R19)</f>
-        <v>2807.886672417103</v>
+        <v>2808.9855159745412</v>
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -21394,7 +21551,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -21422,7 +21579,7 @@
       <c r="Z26" s="23"/>
       <c r="AA26" s="23"/>
     </row>
-    <row r="27" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -21450,7 +21607,7 @@
       <c r="Z27" s="23"/>
       <c r="AA27" s="23"/>
     </row>
-    <row r="28" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -21470,7 +21627,7 @@
       <c r="S28" s="20"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -21490,7 +21647,7 @@
       <c r="S29" s="20"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -21510,7 +21667,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -21530,7 +21687,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="19"/>
     </row>
-    <row r="32" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -21550,7 +21707,7 @@
       <c r="S32" s="20"/>
       <c r="T32" s="19"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -21570,7 +21727,7 @@
       <c r="S33" s="20"/>
       <c r="T33" s="19"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -21590,7 +21747,7 @@
       <c r="S34" s="20"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -21610,7 +21767,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -21630,7 +21787,7 @@
       <c r="S36" s="20"/>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -21650,7 +21807,7 @@
       <c r="S37" s="20"/>
       <c r="T37" s="19"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -21670,7 +21827,7 @@
       <c r="S38" s="20"/>
       <c r="T38" s="19"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -21690,7 +21847,7 @@
       <c r="S39" s="20"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -21710,7 +21867,7 @@
       <c r="S40" s="20"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C41" s="22"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -21728,7 +21885,7 @@
       <c r="R41" s="19"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="20"/>
@@ -21752,6 +21909,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -21759,13 +21917,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1FDE8BE-5204-4CE9-B4B0-E23FF0597D4E}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>45</v>
       </c>
@@ -21782,7 +21940,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="22">
         <v>91</v>
       </c>
@@ -21832,7 +21990,7 @@
       </c>
       <c r="R2" s="33">
         <f>Q2/IBNR!R4</f>
-        <v>2.1388073655374096</v>
+        <v>1</v>
       </c>
       <c r="S2" s="34">
         <f t="shared" ref="S2:S17" si="1">SUM(C2:O2)</f>
@@ -21840,10 +21998,10 @@
       </c>
       <c r="T2" s="33">
         <f>S2/IBNR!S4</f>
-        <v>1.0004937095341748</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="22">
         <v>63</v>
       </c>
@@ -21904,7 +22062,7 @@
         <v>0.99978250445041417</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="22">
         <v>12</v>
       </c>
@@ -21954,7 +22112,7 @@
       </c>
       <c r="R4" s="33">
         <f>Q4/IBNR!R6</f>
-        <v>2.3062403283875961</v>
+        <v>1</v>
       </c>
       <c r="S4" s="34">
         <f t="shared" si="1"/>
@@ -21962,10 +22120,10 @@
       </c>
       <c r="T4" s="33">
         <f>S4/IBNR!S6</f>
-        <v>1.0005633329163615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="22">
         <v>385</v>
       </c>
@@ -22026,7 +22184,7 @@
         <v>0.99978890537545884</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="22">
         <v>92</v>
       </c>
@@ -22087,7 +22245,7 @@
         <v>0.99957865740774465</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="22">
         <v>69</v>
       </c>
@@ -22148,7 +22306,7 @@
         <v>1.000967436799135</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="22">
         <v>6</v>
       </c>
@@ -22209,7 +22367,7 @@
         <v>1.0026213408577471</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="22">
         <v>315</v>
       </c>
@@ -22270,7 +22428,7 @@
         <v>0.99821338490685796</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="22">
         <v>78</v>
       </c>
@@ -22331,7 +22489,7 @@
         <v>0.99402300194754345</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="22">
         <v>85</v>
       </c>
@@ -22392,7 +22550,7 @@
         <v>1.0114907722766855</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="22">
         <v>18</v>
       </c>
@@ -22453,7 +22611,7 @@
         <v>1.0304316895653898</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="22">
         <v>331</v>
       </c>
@@ -22514,7 +22672,7 @@
         <v>0.96586945548918124</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="22">
         <v>67</v>
       </c>
@@ -22575,7 +22733,7 @@
         <v>0.87678992160583091</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="22">
         <v>60</v>
       </c>
@@ -22645,7 +22803,7 @@
       <c r="AA15" s="36"/>
       <c r="AB15" s="36"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="22">
         <v>11</v>
       </c>
@@ -22715,7 +22873,7 @@
       <c r="AA16" s="36"/>
       <c r="AB16" s="36"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="22">
         <v>323</v>
       </c>
@@ -22776,7 +22934,7 @@
         <v>1.0945878330738368</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -22794,7 +22952,7 @@
       <c r="R18" s="33"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>51</v>
       </c>
@@ -22805,48 +22963,48 @@
       </c>
       <c r="R19" s="33">
         <f>Q19/IBNR!R21</f>
-        <v>1.0880068736428652</v>
+        <v>1.0875812575844157</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="35">
         <f>AVERAGE(T2:T17)</f>
-        <v>1.0083022455169872</v>
+        <v>1.0082361803638287</v>
       </c>
       <c r="U19" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O20">
         <f>IF(IBNR!O4&gt;0,O2/IBNR!O4,"")</f>
-        <v>2.1388073655377697</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O21">
         <f>IF(IBNR!O5&gt;0,O3/IBNR!O5,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O22">
         <f>IF(IBNR!O6&gt;0,O4/IBNR!O6,"")</f>
-        <v>2.3062403283873389</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O23">
         <f>IF(IBNR!O7&gt;0,O5/IBNR!O7,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="O24">
         <f>IF(IBNR!O8&gt;0,O6/IBNR!O8,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="M25">
         <f>IF(IBNR!M9&gt;0,M7/IBNR!M9,"")</f>
         <v>1</v>
@@ -22860,7 +23018,7 @@
         <v>2.2379846857752774</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="L26">
         <f>IF(IBNR!L10&gt;0,L8/IBNR!L10,"")</f>
         <v>1</v>
@@ -22878,7 +23036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="K27">
         <f>IF(IBNR!K11&gt;0,K9/IBNR!K11,"")</f>
         <v>1</v>
@@ -22900,7 +23058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J28">
         <f>IF(IBNR!J12&gt;0,J10/IBNR!J12,"")</f>
         <v>1</v>
@@ -22926,7 +23084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="I29">
         <f>IF(IBNR!I13&gt;0,I11/IBNR!I13,"")</f>
         <v>1</v>
@@ -22956,7 +23114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="H30">
         <f>IF(IBNR!H14&gt;0,H12/IBNR!H14,"")</f>
         <v>1</v>
@@ -22990,7 +23148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="G31">
         <f>IF(IBNR!G15&gt;0,G13/IBNR!G15,"")</f>
         <v>1</v>
@@ -23028,7 +23186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F32">
         <f>IF(IBNR!F16&gt;0,F14/IBNR!F16,"")</f>
         <v>1</v>
@@ -23070,7 +23228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>IF(IBNR!E17&gt;0,E15/IBNR!E17,"")</f>
         <v>1</v>
@@ -23116,7 +23274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D34">
         <f>IF(IBNR!D18&gt;0,D16/IBNR!D18,"")</f>
         <v>1</v>
@@ -23166,7 +23324,7 @@
         <v>2.6695739587795484</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>IF(IBNR!C19&gt;0,C17/IBNR!C19,"")</f>
         <v>1</v>
@@ -23245,15 +23403,15 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="10" width="6.7109375" customWidth="1"/>
-    <col min="11" max="11" width="8.42578125" customWidth="1"/>
-    <col min="12" max="18" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="10" width="6.6640625" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="18" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
@@ -23275,7 +23433,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -23334,7 +23492,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="14"/>
       <c r="C3" s="1"/>
@@ -23350,7 +23508,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -23423,7 +23581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -23493,7 +23651,7 @@
       </c>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -23560,7 +23718,7 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -23624,7 +23782,7 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -23685,7 +23843,7 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -23743,7 +23901,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -23798,7 +23956,7 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -23850,7 +24008,7 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -23899,7 +24057,7 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -23945,7 +24103,7 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -23988,7 +24146,7 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -24028,7 +24186,7 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -24065,7 +24223,7 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -24099,7 +24257,7 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -24130,7 +24288,7 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -24158,7 +24316,7 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -24173,7 +24331,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -24193,7 +24351,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -24210,7 +24368,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -24225,7 +24383,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -24295,7 +24453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
@@ -24361,7 +24519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
@@ -24425,7 +24583,7 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
     </row>
-    <row r="27" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -24483,7 +24641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
@@ -24501,7 +24659,7 @@
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
     </row>
-    <row r="29" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -24517,7 +24675,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -24533,7 +24691,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -24549,7 +24707,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
@@ -24612,7 +24770,7 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
     </row>
-    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
@@ -24672,7 +24830,7 @@
         <v>3.5639420790020193E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>38</v>
@@ -24730,7 +24888,7 @@
         <v>0.21754718024776834</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>37</v>
@@ -24788,7 +24946,7 @@
         <v>0.16011712874688444</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1"/>
@@ -24805,7 +24963,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="31"/>
     </row>
-    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -24821,7 +24979,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -24844,31 +25002,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6AAB0A-6A58-4D16-B9DE-68B0D279451E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6AAB0A-6A58-4D16-B9DE-68B0D279451E}">
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
     <col min="4" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
@@ -24895,7 +25053,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>33</v>
       </c>
@@ -24957,7 +25115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="1"/>
@@ -24978,7 +25136,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <f>Exposure!A4</f>
         <v>0</v>
@@ -25035,9 +25193,8 @@
         <f>Data!M1</f>
         <v>1</v>
       </c>
-      <c r="O4" s="28">
-        <f>$B4*Exposure_quarter!O$32/1000</f>
-        <v>0.30024957118868645</v>
+      <c r="O4" s="61">
+        <v>1</v>
       </c>
       <c r="P4" s="27">
         <f>SUM(C4:N4)</f>
@@ -25049,18 +25206,18 @@
       </c>
       <c r="R4" s="20">
         <f t="shared" ref="R4:R19" si="1">S4-P4</f>
-        <v>0.30024957118871498</v>
+        <v>1</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" ref="S4:S19" si="2">SUM(C4:O4)</f>
-        <v>1078.3002495711887</v>
+        <v>1079</v>
       </c>
       <c r="T4" s="26">
         <f t="shared" ref="T4:T19" si="3">S4/B4</f>
-        <v>9.9345886269687558E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9410355629261107E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <f>Exposure!A5</f>
         <v>1</v>
@@ -25142,7 +25299,7 @@
         <v>0.19804862387878727</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <f>Exposure!A6</f>
         <v>2</v>
@@ -25199,7 +25356,7 @@
         <f>Data!M3</f>
         <v>0</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="61">
         <f>$B6*Exposure_quarter!O$34/1000</f>
         <v>2.1898299163740362</v>
       </c>
@@ -25224,7 +25381,7 @@
         <v>0.10005859625634553</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <f>Exposure!A7</f>
         <v>3</v>
@@ -25306,7 +25463,7 @@
         <v>0.20417866426939604</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <f>Exposure!A8</f>
         <v>4</v>
@@ -25388,7 +25545,7 @@
         <v>0.10222042136988678</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <f>Exposure!A9</f>
         <v>5</v>
@@ -25470,7 +25627,7 @@
         <v>0.1993567806924543</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <f>Exposure!A10</f>
         <v>6</v>
@@ -25552,7 +25709,7 @@
         <v>0.10004325792074702</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <f>Exposure!A11</f>
         <v>7</v>
@@ -25634,7 +25791,7 @@
         <v>0.20495592568920346</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <f>Exposure!A12</f>
         <v>8</v>
@@ -25716,7 +25873,7 @@
         <v>9.9098117925412565E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <f>Exposure!A13</f>
         <v>9</v>
@@ -25798,7 +25955,7 @@
         <v>0.19940592340934266</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <f>Exposure!A14</f>
         <v>10</v>
@@ -25880,7 +26037,7 @@
         <v>0.10375709148145131</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <f>Exposure!A15</f>
         <v>11</v>
@@ -25962,7 +26119,7 @@
         <v>0.20677819622759927</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <f>Exposure!A16</f>
         <v>12</v>
@@ -26044,7 +26201,7 @@
         <v>9.6819972136033161E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <f>Exposure!A17</f>
         <v>13</v>
@@ -26126,7 +26283,7 @@
         <v>0.18872572928756673</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <f>Exposure!A18</f>
         <v>14</v>
@@ -26208,7 +26365,7 @@
         <v>0.1044744851598884</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <f>Exposure!A19</f>
         <v>15</v>
@@ -26290,7 +26447,7 @@
         <v>0.20442856204880419</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -26311,7 +26468,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -26331,16 +26488,17 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="32">
         <f>SUM(R4:R19)</f>
-        <v>3185.1336837548465</v>
+        <v>3185.8334341836576</v>
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W25" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -26352,12 +26510,12 @@
       <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>45</v>
       </c>
@@ -26374,7 +26532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C2" s="22">
         <v>91</v>
       </c>
@@ -26424,7 +26582,7 @@
       </c>
       <c r="R2" s="33">
         <f>Q2/IBNR_quarter!R4</f>
-        <v>3.3305626250885565</v>
+        <v>1</v>
       </c>
       <c r="S2" s="34">
         <f t="shared" ref="S2:S17" si="1">SUM(C2:O2)</f>
@@ -26432,10 +26590,10 @@
       </c>
       <c r="T2" s="33">
         <f>S2/IBNR_quarter!S4</f>
-        <v>1.0006489383908512</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C3" s="22">
         <v>63</v>
       </c>
@@ -26496,7 +26654,7 @@
         <v>0.99982004711725825</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="22">
         <v>12</v>
       </c>
@@ -26557,7 +26715,7 @@
         <v>0.99881866369076344</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C5" s="22">
         <v>385</v>
       </c>
@@ -26618,7 +26776,7 @@
         <v>0.99921579892140133</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C6" s="22">
         <v>92</v>
       </c>
@@ -26679,7 +26837,7 @@
         <v>0.99972938310189208</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C7" s="22">
         <v>69</v>
       </c>
@@ -26740,7 +26898,7 @@
         <v>1.0010020242442093</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C8" s="22">
         <v>6</v>
       </c>
@@ -26801,7 +26959,7 @@
         <v>0.99766276246652486</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C9" s="22">
         <v>315</v>
       </c>
@@ -26862,7 +27020,7 @@
         <v>0.99807429494970445</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C10" s="22">
         <v>78</v>
       </c>
@@ -26923,7 +27081,7 @@
         <v>1.0002288821020027</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C11" s="22">
         <v>85</v>
       </c>
@@ -26984,7 +27142,7 @@
         <v>1.0052615600016717</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C12" s="22">
         <v>18</v>
       </c>
@@ -27045,7 +27203,7 @@
         <v>0.99684500848079682</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C13" s="22">
         <v>331</v>
       </c>
@@ -27106,7 +27264,7 @@
         <v>0.99492379473230441</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C14" s="22">
         <v>67</v>
       </c>
@@ -27167,7 +27325,7 @@
         <v>0.99879492391742752</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C15" s="22">
         <v>60</v>
       </c>
@@ -27228,7 +27386,7 @@
         <v>0.99822340014993671</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C16" s="22">
         <v>11</v>
       </c>
@@ -27299,7 +27457,7 @@
       <c r="AA16" s="36"/>
       <c r="AB16" s="36"/>
     </row>
-    <row r="17" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C17" s="22">
         <v>323</v>
       </c>
@@ -27370,7 +27528,7 @@
       <c r="AA17" s="36"/>
       <c r="AB17" s="36"/>
     </row>
-    <row r="18" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -27398,7 +27556,7 @@
       <c r="AA18" s="36"/>
       <c r="AB18" s="36"/>
     </row>
-    <row r="19" spans="1:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>51</v>
       </c>
@@ -27409,48 +27567,48 @@
       </c>
       <c r="R19" s="33">
         <f>Q19/IBNR_quarter!R21</f>
-        <v>0.95914341541814463</v>
+        <v>0.95893274495150038</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="35">
         <f>AVERAGE(T2:T17)</f>
-        <v>0.99595237027871764</v>
+        <v>0.99591181162928932</v>
       </c>
       <c r="U19" s="35" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O20">
         <f>IF(IBNR_quarter!O4&gt;0,O2/IBNR_quarter!O4,"")</f>
-        <v>3.3305626250888731</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O21">
         <f>IF(IBNR_quarter!O5&gt;0,O3/IBNR_quarter!O5,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O22">
         <f>IF(IBNR_quarter!O6&gt;0,O4/IBNR_quarter!O6,"")</f>
         <v>0.4566564702229568</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O23">
         <f>IF(IBNR_quarter!O7&gt;0,O5/IBNR_quarter!O7,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="O24">
         <f>IF(IBNR_quarter!O8&gt;0,O6/IBNR_quarter!O8,"")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="M25">
         <f>IF(IBNR_quarter!M9&gt;0,M7/IBNR_quarter!M9,"")</f>
         <v>1</v>
@@ -27464,7 +27622,7 @@
         <v>2.7049857702399072</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="L26">
         <f>IF(IBNR_quarter!L10&gt;0,L8/IBNR_quarter!L10,"")</f>
         <v>1</v>
@@ -27482,7 +27640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="K27">
         <f>IF(IBNR_quarter!K11&gt;0,K9/IBNR_quarter!K11,"")</f>
         <v>1</v>
@@ -27504,7 +27662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="J28">
         <f>IF(IBNR_quarter!J12&gt;0,J10/IBNR_quarter!J12,"")</f>
         <v>1</v>
@@ -27530,7 +27688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="I29">
         <f>IF(IBNR_quarter!I13&gt;0,I11/IBNR_quarter!I13,"")</f>
         <v>1</v>
@@ -27560,7 +27718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="H30">
         <f>IF(IBNR_quarter!H14&gt;0,H12/IBNR_quarter!H14,"")</f>
         <v>1</v>
@@ -27594,7 +27752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="G31">
         <f>IF(IBNR_quarter!G15&gt;0,G13/IBNR_quarter!G15,"")</f>
         <v>1</v>
@@ -27632,7 +27790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="F32">
         <f>IF(IBNR_quarter!F16&gt;0,F14/IBNR_quarter!F16,"")</f>
         <v>1</v>
@@ -27674,7 +27832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
       <c r="E33">
         <f>IF(IBNR_quarter!E17&gt;0,E15/IBNR_quarter!E17,"")</f>
         <v>1</v>
@@ -27720,7 +27878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
       <c r="D34">
         <f>IF(IBNR_quarter!D18&gt;0,D16/IBNR_quarter!D18,"")</f>
         <v>1</v>
@@ -27770,7 +27928,7 @@
         <v>0.52859981937261769</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C35">
         <f>IF(IBNR_quarter!C19&gt;0,C17/IBNR_quarter!C19,"")</f>
         <v>1</v>
@@ -27824,7 +27982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C37" t="str">
         <f>IF(C19&gt;0,IBNR_quarter!C21/C19,"")</f>
         <v/>
@@ -27899,19 +28057,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D87CA99-AB58-46DF-9C34-CFFE6FBE7FBF}">
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="38"/>
-    <col min="2" max="2" width="16.85546875" style="38" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="38" customWidth="1"/>
-    <col min="19" max="16384" width="11.42578125" style="38"/>
+    <col min="1" max="1" width="11.5" style="38"/>
+    <col min="2" max="2" width="16.83203125" style="38" customWidth="1"/>
+    <col min="3" max="18" width="9.1640625" style="38" customWidth="1"/>
+    <col min="19" max="16384" width="11.5" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
@@ -27931,7 +28089,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>21</v>
       </c>
@@ -27985,7 +28143,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="14"/>
       <c r="C3" s="1"/>
@@ -28001,7 +28159,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -28068,7 +28226,7 @@
       </c>
       <c r="R4" s="6"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -28132,7 +28290,7 @@
       <c r="Q5" s="31"/>
       <c r="R5" s="6"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -28193,7 +28351,7 @@
       <c r="Q6" s="31"/>
       <c r="R6" s="6"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -28251,7 +28409,7 @@
       <c r="Q7" s="31"/>
       <c r="R7" s="6"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -28306,7 +28464,7 @@
       <c r="Q8" s="31"/>
       <c r="R8" s="6"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -28358,7 +28516,7 @@
       <c r="Q9" s="31"/>
       <c r="R9" s="6"/>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -28407,7 +28565,7 @@
       <c r="Q10" s="31"/>
       <c r="R10" s="6"/>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -28453,7 +28611,7 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="6"/>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -28496,7 +28654,7 @@
       <c r="Q12" s="31"/>
       <c r="R12" s="6"/>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -28536,7 +28694,7 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="6"/>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -28573,7 +28731,7 @@
       <c r="Q14" s="31"/>
       <c r="R14" s="6"/>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -28607,7 +28765,7 @@
       <c r="Q15" s="31"/>
       <c r="R15" s="6"/>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -28638,7 +28796,7 @@
       <c r="Q16" s="31"/>
       <c r="R16" s="6"/>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -28666,7 +28824,7 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="6"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -28691,7 +28849,7 @@
       <c r="Q18" s="31"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -28713,7 +28871,7 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="6"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -28728,7 +28886,7 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -28748,7 +28906,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -28765,7 +28923,7 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -28780,7 +28938,7 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -28849,7 +29007,7 @@
       </c>
       <c r="R24" s="46"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="43"/>
@@ -28869,7 +29027,7 @@
       <c r="Q25" s="47"/>
       <c r="R25" s="47"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
@@ -28935,10 +29093,10 @@
       </c>
       <c r="R26" s="53"/>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="38" t="s">
         <v>63</v>
       </c>
@@ -29004,7 +29162,7 @@
       </c>
       <c r="R28" s="53"/>
     </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -29054,13 +29212,13 @@
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
     </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="O31" s="43"/>
       <c r="P31" s="43"/>
       <c r="Q31" s="43"/>
       <c r="R31" s="43"/>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>64</v>
@@ -29112,7 +29270,7 @@
       <c r="Q32" s="47"/>
       <c r="R32" s="47"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B34" s="38" t="s">
         <v>63</v>
       </c>
@@ -29157,7 +29315,7 @@
         <v>1.0007552870090635</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -29217,7 +29375,7 @@
         <v>1.0002440810349036</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="43"/>
@@ -29234,7 +29392,7 @@
       <c r="N37" s="43"/>
       <c r="O37" s="47"/>
     </row>
-    <row r="38" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="38" t="s">
         <v>64</v>
       </c>
@@ -29291,12 +29449,12 @@
         <v>1.0002440810349036</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="P39" s="43"/>
       <c r="Q39" s="47"/>
       <c r="R39" s="47"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B40" s="38" t="s">
         <v>63</v>
       </c>
@@ -29356,15 +29514,15 @@
       <c r="Q40" s="47"/>
       <c r="R40" s="47"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R41" s="47"/>
     </row>
-    <row r="42" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="P42" s="47"/>
       <c r="Q42" s="47"/>
       <c r="R42" s="43"/>
     </row>
-    <row r="43" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="48"/>
@@ -29383,7 +29541,7 @@
       <c r="P43" s="43"/>
       <c r="Q43" s="43"/>
     </row>
-    <row r="44" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>13</v>
       </c>
@@ -29453,7 +29611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>14</v>
       </c>
@@ -29475,7 +29633,7 @@
       <c r="Q45"/>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -29495,7 +29653,7 @@
       <c r="Q46"/>
       <c r="R46"/>
     </row>
-    <row r="47" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
@@ -29522,27 +29680,27 @@
       </c>
       <c r="H47" s="45">
         <f>H56</f>
-        <v>1.0223716965046787</v>
+        <v>1.0226234675847377</v>
       </c>
       <c r="I47" s="45">
         <f>I56</f>
-        <v>1.0096522002343333</v>
+        <v>1.0097291642267632</v>
       </c>
       <c r="J47" s="45">
         <f>J56</f>
-        <v>1.004164412356666</v>
+        <v>1.004184002129505</v>
       </c>
       <c r="K47" s="45">
         <f>K56</f>
-        <v>1.0017967230118854</v>
+        <v>1.0017993193877379</v>
       </c>
       <c r="L47" s="45">
         <f>L56</f>
-        <v>1.0007751906643614</v>
+        <v>1.0007737926891238</v>
       </c>
       <c r="M47" s="44">
         <f>B63</f>
-        <v>1.0005882540749389</v>
+        <v>1.000583851328835</v>
       </c>
       <c r="N47" s="43"/>
       <c r="O47" s="43"/>
@@ -29550,7 +29708,7 @@
       <c r="Q47" s="43"/>
       <c r="R47" s="43"/>
     </row>
-    <row r="48" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>12</v>
       </c>
@@ -29572,7 +29730,7 @@
       <c r="Q48"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -29592,7 +29750,7 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -29612,7 +29770,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>11</v>
       </c>
@@ -29634,7 +29792,7 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -29656,7 +29814,7 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>9</v>
       </c>
@@ -29669,7 +29827,10 @@
         <f>LN(G44-1)</f>
         <v>-2.9216545063407944</v>
       </c>
-      <c r="H53" s="31"/>
+      <c r="H53" s="31">
+        <f>LN(H44-1)</f>
+        <v>-3.7620531760993106</v>
+      </c>
       <c r="I53" s="31">
         <f>LN(I44-1)</f>
         <v>-4.7066559478365573</v>
@@ -29693,7 +29854,7 @@
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -29715,13 +29876,13 @@
       <c r="Q54"/>
       <c r="R54"/>
     </row>
-    <row r="55" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B55" s="1">
         <f>SLOPE(G53:L53,G2:L2)</f>
-        <v>-0.84061071809183696</v>
+        <v>-0.84385976025221632</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -29731,27 +29892,27 @@
       </c>
       <c r="G55" s="1">
         <f t="shared" ref="G55:L55" si="1">_xlfn.FORECAST.LINEAR(G2,$G$53:$L$53,$G$2:$L$2)</f>
-        <v>-2.9593479498785662</v>
+        <v>-2.9449077624991022</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="1"/>
-        <v>-3.7999586679704027</v>
+        <v>-3.7887675227513187</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="1"/>
-        <v>-4.6405693860622401</v>
+        <v>-4.6326272830035347</v>
       </c>
       <c r="J55" s="1">
         <f t="shared" si="1"/>
-        <v>-5.4811801041540775</v>
+        <v>-5.4764870432557515</v>
       </c>
       <c r="K55" s="1">
         <f t="shared" si="1"/>
-        <v>-6.321790822245914</v>
+        <v>-6.3203468035079675</v>
       </c>
       <c r="L55" s="1">
         <f t="shared" si="1"/>
-        <v>-7.1624015403377506</v>
+        <v>-7.1642065637601835</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -29760,13 +29921,13 @@
       <c r="Q55"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B56" s="1">
         <f>INTERCEPT(G53:L53,G2:L2)</f>
-        <v>0.40309492248878165</v>
+        <v>0.43053127850976303</v>
       </c>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -29776,27 +29937,27 @@
       </c>
       <c r="G56" s="4">
         <f t="shared" ref="G56:L56" si="2">EXP(G55)+1</f>
-        <v>1.0518527167222635</v>
+        <v>1.0526069119225829</v>
       </c>
       <c r="H56" s="4">
         <f t="shared" si="2"/>
-        <v>1.0223716965046787</v>
+        <v>1.0226234675847377</v>
       </c>
       <c r="I56" s="4">
         <f t="shared" si="2"/>
-        <v>1.0096522002343333</v>
+        <v>1.0097291642267632</v>
       </c>
       <c r="J56" s="4">
         <f t="shared" si="2"/>
-        <v>1.004164412356666</v>
+        <v>1.004184002129505</v>
       </c>
       <c r="K56" s="4">
         <f t="shared" si="2"/>
-        <v>1.0017967230118854</v>
+        <v>1.0017993193877379</v>
       </c>
       <c r="L56" s="4">
         <f t="shared" si="2"/>
-        <v>1.0007751906643614</v>
+        <v>1.0007737926891238</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -29805,7 +29966,7 @@
       <c r="Q56"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -29825,7 +29986,7 @@
       <c r="Q57"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -29845,7 +30006,7 @@
       <c r="Q58"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>3</v>
       </c>
@@ -29867,13 +30028,13 @@
       <c r="Q59"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="1">
         <f>EXP(B56)</f>
-        <v>1.4964489315790048</v>
+        <v>1.5380744524236765</v>
       </c>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -29892,13 +30053,13 @@
       <c r="Q60"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B61" s="1">
         <f>EXP(B55)</f>
-        <v>0.43144695049455717</v>
+        <v>0.43004743593447631</v>
       </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -29917,13 +30078,13 @@
       <c r="Q61"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="42">
         <f>B60*B61^(10)/(1-B61)</f>
-        <v>5.8825407493896798E-4</v>
+        <v>5.8385132883501795E-4</v>
       </c>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -29942,13 +30103,13 @@
       <c r="Q62"/>
       <c r="R62"/>
     </row>
-    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B63" s="1">
         <f>1+(L47-1)*B61/(1-B61)</f>
-        <v>1.0005882540749389</v>
+        <v>1.000583851328835</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>59</v>
@@ -29969,7 +30130,7 @@
       <c r="Q63"/>
       <c r="R63"/>
     </row>
-    <row r="64" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -29989,7 +30150,7 @@
       <c r="Q64"/>
       <c r="R64"/>
     </row>
-    <row r="65" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -30009,7 +30170,7 @@
       <c r="Q65"/>
       <c r="R65"/>
     </row>
-    <row r="66" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>58</v>
       </c>
@@ -30031,7 +30192,7 @@
       <c r="Q66"/>
       <c r="R66"/>
     </row>
-    <row r="67" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="3">
@@ -30075,54 +30236,54 @@
       <c r="Q67"/>
       <c r="R67"/>
     </row>
-    <row r="68" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="41">
         <f>PRODUCT(C47:$M47)</f>
-        <v>11.890293000572377</v>
+        <v>11.894321635967851</v>
       </c>
       <c r="D68" s="1">
         <f>PRODUCT(D47:$M47)</f>
-        <v>2.5051781572312608</v>
+        <v>2.5060269545986338</v>
       </c>
       <c r="E68" s="1">
         <f>PRODUCT(E47:$M47)</f>
-        <v>1.5084777551987107</v>
+        <v>1.5089888533589981</v>
       </c>
       <c r="F68" s="1">
         <f>PRODUCT(F47:$M47)</f>
-        <v>1.2167781410910081</v>
+        <v>1.217190406414276</v>
       </c>
       <c r="G68" s="1">
         <f>PRODUCT(G47:$M47)</f>
-        <v>1.0958056167310279</v>
+        <v>1.0961768944862442</v>
       </c>
       <c r="H68" s="1">
         <f>PRODUCT(H47:$M47)</f>
-        <v>1.0398171534673011</v>
+        <v>1.0401694613699803</v>
       </c>
       <c r="I68" s="1">
         <f>PRODUCT(I47:$M47)</f>
-        <v>1.0170637127595232</v>
+        <v>1.0171578243032926</v>
       </c>
       <c r="J68" s="1">
         <f>PRODUCT(J47:$M47)</f>
-        <v>1.0073406590145297</v>
+        <v>1.0073570818192801</v>
       </c>
       <c r="K68" s="1">
         <f>PRODUCT(K47:$M47)</f>
-        <v>1.0031630743121134</v>
+        <v>1.0031598588336859</v>
       </c>
       <c r="L68" s="1">
         <f>PRODUCT(L47:$M47)</f>
-        <v>1.0013639007483675</v>
+        <v>1.0013580957978485</v>
       </c>
       <c r="M68" s="1">
         <f>PRODUCT(M47:$M47)</f>
-        <v>1.0005882540749389</v>
+        <v>1.000583851328835</v>
       </c>
       <c r="N68" s="1">
         <v>1</v>
@@ -30132,65 +30293,65 @@
       <c r="Q68"/>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="40">
         <f>1/C68</f>
-        <v>8.4102216821054093E-2</v>
+        <v>8.407373119758664E-2</v>
       </c>
       <c r="D69" s="39">
         <f t="shared" ref="D69:N69" si="3">1/D68-1/C68</f>
-        <v>0.31507099052688414</v>
+        <v>0.31496427522328219</v>
       </c>
       <c r="E69" s="39">
         <f t="shared" si="3"/>
-        <v>0.26374674394313713</v>
+        <v>0.26365741228551021</v>
       </c>
       <c r="F69" s="39">
         <f t="shared" si="3"/>
-        <v>0.1589225574043579</v>
+        <v>0.15886872995126788</v>
       </c>
       <c r="G69" s="39">
         <f t="shared" si="3"/>
-        <v>9.0728101211794421E-2</v>
+        <v>9.0697371385319858E-2</v>
       </c>
       <c r="H69" s="39">
         <f t="shared" si="3"/>
-        <v>4.9136933255981674E-2</v>
+        <v>4.9120290458300797E-2</v>
       </c>
       <c r="I69" s="39">
         <f t="shared" si="3"/>
-        <v>2.1515029281907627E-2</v>
+        <v>2.1749790226431753E-2</v>
       </c>
       <c r="J69" s="39">
         <f t="shared" si="3"/>
-        <v>9.4902611441565199E-3</v>
+        <v>9.5650488000001976E-3</v>
       </c>
       <c r="K69" s="39">
         <f t="shared" si="3"/>
-        <v>4.1340655908200796E-3</v>
+        <v>4.1534448955764525E-3</v>
       </c>
       <c r="L69" s="39">
         <f t="shared" si="3"/>
-        <v>1.7910577630834146E-3</v>
+        <v>1.7936517015642028E-3</v>
       </c>
       <c r="M69" s="39">
         <f t="shared" si="3"/>
-        <v>7.7413482129928823E-4</v>
+        <v>7.727432297904846E-4</v>
       </c>
       <c r="N69" s="39">
         <f t="shared" si="3"/>
-        <v>5.8790823552368199E-4</v>
+        <v>5.8351064536932284E-4</v>
       </c>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="23" t="s">
@@ -30212,7 +30373,7 @@
       <c r="Q70"/>
       <c r="R70"/>
     </row>
-    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71" s="23" t="s">
@@ -30234,7 +30395,7 @@
       <c r="Q71"/>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
       <c r="C72"/>
@@ -30254,7 +30415,7 @@
       <c r="Q72"/>
       <c r="R72"/>
     </row>
-    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -30274,7 +30435,7 @@
       <c r="Q73"/>
       <c r="R73"/>
     </row>
-    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -30294,7 +30455,7 @@
       <c r="Q74"/>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -30314,7 +30475,7 @@
       <c r="Q75"/>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -30334,7 +30495,7 @@
       <c r="Q76"/>
       <c r="R76"/>
     </row>
-    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -30364,20 +30525,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9193B46-1BAE-42C5-876C-DF514D4A6538}">
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N4" sqref="N4:N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="6.42578125" customWidth="1"/>
-    <col min="4" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
+    <col min="4" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="6.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="6.5" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>36</v>
       </c>
@@ -30404,7 +30565,7 @@
       </c>
       <c r="S1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>33</v>
       </c>
@@ -30462,7 +30623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="1"/>
@@ -30483,7 +30644,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>0</v>
       </c>
@@ -30532,32 +30693,32 @@
         <f>Data!L1</f>
         <v>1</v>
       </c>
-      <c r="N4" s="28">
-        <v>1</v>
+      <c r="N4" s="61">
+        <v>2</v>
       </c>
       <c r="O4" s="28"/>
       <c r="P4" s="27">
-        <f>SUM(C4:N4)</f>
-        <v>1078</v>
+        <f>SUM(C4:M4)</f>
+        <v>1077</v>
       </c>
       <c r="Q4" s="26">
         <f>P4/Data!A1</f>
-        <v>9.9318223696333155E-2</v>
+        <v>9.9226091763405203E-2</v>
       </c>
       <c r="R4" s="20">
         <f t="shared" ref="R4:R19" si="0">S4-P4</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" s="20">
         <f t="shared" ref="S4:S19" si="1">SUM(C4:O4)</f>
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="T4" s="26">
         <f>S4/Data!A1</f>
-        <v>9.9318223696333155E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9410355629261107E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -30608,31 +30769,31 @@
       </c>
       <c r="N5" s="28">
         <f>SUM($C5:M5)*(CL!M$47-1)</f>
-        <v>1.1835671987770642</v>
+        <v>1.1747088736159865</v>
       </c>
       <c r="O5" s="28"/>
       <c r="P5" s="27">
-        <f>SUM(C5:N5)</f>
-        <v>2013.1835671987772</v>
+        <f t="shared" ref="P5:P9" si="2">SUM(C5:M5)</f>
+        <v>2012</v>
       </c>
       <c r="Q5" s="26">
         <f>P5/Data!A2</f>
-        <v>0.19803104143210479</v>
+        <v>0.19791461735195751</v>
       </c>
       <c r="R5" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1747088736160549</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="1"/>
-        <v>2013.1835671987772</v>
+        <v>2013.1747088736161</v>
       </c>
       <c r="T5" s="26">
         <f>S5/Data!A2</f>
-        <v>0.19803104143210479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.19803017006429433</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>2</v>
       </c>
@@ -30681,33 +30842,32 @@
         <f>Data!L3</f>
         <v>4</v>
       </c>
-      <c r="N6" s="28">
-        <f>SUM($C6:M6)*(CL!M$47-1)</f>
-        <v>0.59119534531359319</v>
+      <c r="N6" s="61">
+        <v>1</v>
       </c>
       <c r="O6" s="28"/>
       <c r="P6" s="27">
-        <f>SUM(C6:N6)</f>
-        <v>1005.5911953453136</v>
+        <f t="shared" si="2"/>
+        <v>1005</v>
       </c>
       <c r="Q6" s="26">
         <f>P6/Data!A3</f>
-        <v>9.9899780980062941E-2</v>
+        <v>9.9841049076097754E-2</v>
       </c>
       <c r="R6" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="20">
         <f t="shared" si="1"/>
-        <v>1005.5911953453136</v>
+        <v>1006</v>
       </c>
       <c r="T6" s="26">
         <f>S6/Data!A3</f>
-        <v>9.9899780980062941E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9940393403536665E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>3</v>
       </c>
@@ -30758,31 +30918,31 @@
       </c>
       <c r="N7" s="28">
         <f>SUM($C7:M7)*(CL!M$47-1)</f>
-        <v>1.242392606270954</v>
+        <v>1.2330940064994849</v>
       </c>
       <c r="O7" s="28"/>
       <c r="P7" s="27">
-        <f>SUM(C7:N7)</f>
-        <v>2113.2423926062711</v>
+        <f t="shared" si="2"/>
+        <v>2112</v>
       </c>
       <c r="Q7" s="26">
         <f>P7/Data!A4</f>
-        <v>0.20413856188236776</v>
+        <v>0.20401854714064915</v>
       </c>
       <c r="R7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2330940064994138</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="1"/>
-        <v>2113.2423926062711</v>
+        <v>2113.2330940064994</v>
       </c>
       <c r="T7" s="26">
         <f>S7/Data!A4</f>
-        <v>0.20413856188236776</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.2041376636405042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>4</v>
       </c>
@@ -30833,31 +30993,31 @@
       </c>
       <c r="N8" s="28">
         <f>SUM($C8:M8)*(CL!M$47-1)</f>
-        <v>0.58943058308877649</v>
+        <v>0.58501903149265333</v>
       </c>
       <c r="O8" s="28"/>
       <c r="P8" s="27">
-        <f>SUM(C8:N8)</f>
-        <v>1002.5894305830888</v>
+        <f t="shared" si="2"/>
+        <v>1002</v>
       </c>
       <c r="Q8" s="26">
         <f>P8/Data!A5</f>
-        <v>0.10225287410332369</v>
+        <v>0.10219275879653238</v>
       </c>
       <c r="R8" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5850190314926067</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="1"/>
-        <v>1002.5894305830888</v>
+        <v>1002.5850190314926</v>
       </c>
       <c r="T8" s="26">
         <f>S8/Data!A5</f>
-        <v>0.10225287410332369</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10225242417455305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>5</v>
       </c>
@@ -30908,11 +31068,11 @@
       </c>
       <c r="N9" s="28">
         <f>SUM($C9:M9)*(CL!M$47-1)</f>
-        <v>1.2159211728987036</v>
+        <v>1.2068206967019106</v>
       </c>
       <c r="O9" s="28"/>
       <c r="P9" s="27">
-        <f>SUM(C9:M9)</f>
+        <f t="shared" si="2"/>
         <v>2067</v>
       </c>
       <c r="Q9" s="26">
@@ -30921,18 +31081,18 @@
       </c>
       <c r="R9" s="20">
         <f t="shared" si="0"/>
-        <v>1.2159211728985611</v>
+        <v>1.206820696701925</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="1"/>
-        <v>2068.2159211728986</v>
+        <v>2068.2068206967019</v>
       </c>
       <c r="T9" s="26">
         <f>S9/Data!A6</f>
-        <v>0.19938454845974149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.19938367113628669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>6</v>
       </c>
@@ -30979,11 +31139,11 @@
       </c>
       <c r="M10" s="28">
         <f>SUM($C10:L10)*(CL!L$47-1)</f>
-        <v>0.64650901407739125</v>
+        <v>0.64534310272925666</v>
       </c>
       <c r="N10" s="28">
         <f>SUM($C10:M10)*(CL!M$47-1)</f>
-        <v>0.4909842100610573</v>
+        <v>0.4873087926764591</v>
       </c>
       <c r="O10" s="28"/>
       <c r="P10" s="27">
@@ -30996,18 +31156,18 @@
       </c>
       <c r="R10" s="20">
         <f t="shared" si="0"/>
-        <v>1.1374932241384386</v>
+        <v>1.1326518954057292</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="1"/>
-        <v>835.13749322413844</v>
+        <v>835.13265189540573</v>
       </c>
       <c r="T10" s="26">
         <f>S10/Data!A7</f>
-        <v>9.9468496096252787E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9467919473011646E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>7</v>
       </c>
@@ -31050,15 +31210,15 @@
       </c>
       <c r="L11" s="28">
         <f>SUM($C11:K11)*(CL!K$47-1)</f>
-        <v>3.173012838989584</v>
+        <v>3.1775980387451646</v>
       </c>
       <c r="M11" s="28">
         <f>SUM($C11:L11)*(CL!L$47-1)</f>
-        <v>1.3714464031928812</v>
+        <v>1.3689766911240018</v>
       </c>
       <c r="N11" s="28">
         <f>SUM($C11:M11)*(CL!M$47-1)</f>
-        <v>1.0415299930097026</v>
+        <v>1.0337359704202622</v>
       </c>
       <c r="O11" s="28"/>
       <c r="P11" s="27">
@@ -31071,18 +31231,18 @@
       </c>
       <c r="R11" s="20">
         <f t="shared" si="0"/>
-        <v>5.5859892351920735</v>
+        <v>5.5803107002896013</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="1"/>
-        <v>1771.5859892351921</v>
+        <v>1771.5803107002896</v>
       </c>
       <c r="T11" s="26">
         <f>S11/Data!A8</f>
-        <v>0.20509214971465525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.20509149232464571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>8</v>
       </c>
@@ -31121,19 +31281,19 @@
       </c>
       <c r="K12" s="28">
         <f>SUM($C12:J12)*(CL!J$47-1)</f>
-        <v>3.4106537201094382</v>
+        <v>3.4266977440645805</v>
       </c>
       <c r="L12" s="28">
         <f>SUM($C12:K12)*(CL!K$47-1)</f>
-        <v>1.4776441467586205</v>
+        <v>1.4798083022441686</v>
       </c>
       <c r="M12" s="28">
         <f>SUM($C12:L12)*(CL!L$47-1)</f>
-        <v>0.63867051698298427</v>
+        <v>0.63753283090017498</v>
       </c>
       <c r="N12" s="28">
         <f>SUM($C12:M12)*(CL!M$47-1)</f>
-        <v>0.48503134904881684</v>
+        <v>0.48141113278142261</v>
       </c>
       <c r="O12" s="28"/>
       <c r="P12" s="27">
@@ -31146,18 +31306,18 @@
       </c>
       <c r="R12" s="20">
         <f t="shared" si="0"/>
-        <v>6.011999732899767</v>
+        <v>6.0254500099903225</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="1"/>
-        <v>825.01199973289977</v>
+        <v>825.02545000999032</v>
       </c>
       <c r="T12" s="26">
         <f>S12/Data!A9</f>
-        <v>9.9363121731048984E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.9364741660844316E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>9</v>
       </c>
@@ -31192,23 +31352,23 @@
       </c>
       <c r="J13" s="28">
         <f>SUM($C13:I13)*(CL!I$47-1)</f>
-        <v>18.271615043592995</v>
+        <v>18.417307881262694</v>
       </c>
       <c r="K13" s="28">
         <f>SUM($C13:J13)*(CL!J$47-1)</f>
-        <v>7.9593231306324848</v>
+        <v>7.9973740865478842</v>
       </c>
       <c r="L13" s="28">
         <f>SUM($C13:K13)*(CL!K$47-1)</f>
-        <v>3.4483263917400016</v>
+        <v>3.453640050373493</v>
       </c>
       <c r="M13" s="28">
         <f>SUM($C13:L13)*(CL!L$47-1)</f>
-        <v>1.4904430164527411</v>
+        <v>1.4879014497254368</v>
       </c>
       <c r="N13" s="28">
         <f>SUM($C13:M13)*(CL!M$47-1)</f>
-        <v>1.1319006713593467</v>
+        <v>1.1235379382236093</v>
       </c>
       <c r="O13" s="28"/>
       <c r="P13" s="27">
@@ -31221,18 +31381,18 @@
       </c>
       <c r="R13" s="20">
         <f t="shared" si="0"/>
-        <v>32.301608253777658</v>
+        <v>32.479761406133093</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="1"/>
-        <v>1925.3016082537777</v>
+        <v>1925.4797614061331</v>
       </c>
       <c r="T13" s="26">
         <f>S13/Data!A10</f>
-        <v>0.19914166407258768</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.19916009116736999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>10</v>
       </c>
@@ -31263,27 +31423,27 @@
       </c>
       <c r="I14" s="28">
         <f>SUM($C14:H14)*(CL!H$47-1)</f>
-        <v>19.687092924117291</v>
+        <v>19.908651474569137</v>
       </c>
       <c r="J14" s="28">
         <f>SUM($C14:I14)*(CL!I$47-1)</f>
-        <v>8.6839599691488374</v>
+        <v>8.7553590592810693</v>
       </c>
       <c r="K14" s="28">
         <f>SUM($C14:J14)*(CL!J$47-1)</f>
-        <v>3.7828316371064048</v>
+        <v>3.8018521550781674</v>
       </c>
       <c r="L14" s="28">
         <f>SUM($C14:K14)*(CL!K$47-1)</f>
-        <v>1.6388878747163615</v>
+        <v>1.6418175173851948</v>
       </c>
       <c r="M14" s="28">
         <f>SUM($C14:L14)*(CL!L$47-1)</f>
-        <v>0.70836362632932859</v>
+        <v>0.70732984001557031</v>
       </c>
       <c r="N14" s="28">
         <f>SUM($C14:M14)*(CL!M$47-1)</f>
-        <v>0.53795901980673388</v>
+        <v>0.534115959253738</v>
       </c>
       <c r="O14" s="28"/>
       <c r="P14" s="27">
@@ -31296,18 +31456,18 @@
       </c>
       <c r="R14" s="20">
         <f t="shared" si="0"/>
-        <v>35.03909505122499</v>
+        <v>35.349126005583003</v>
       </c>
       <c r="S14" s="20">
         <f t="shared" si="1"/>
-        <v>915.03909505122499</v>
+        <v>915.349126005583</v>
       </c>
       <c r="T14" s="26">
         <f>S14/Data!A11</f>
-        <v>9.8380721970887541E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>9.8414055048444582E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>11</v>
       </c>
@@ -31338,27 +31498,27 @@
       </c>
       <c r="I15" s="28">
         <f>SUM($C15:H15)*(CL!H$47-1)</f>
-        <v>39.678895954288407</v>
+        <v>40.125442262829075</v>
       </c>
       <c r="J15" s="28">
         <f>SUM($C15:I15)*(CL!I$47-1)</f>
-        <v>17.502327307296525</v>
+        <v>17.646230578313094</v>
       </c>
       <c r="K15" s="28">
         <f>SUM($C15:J15)*(CL!J$47-1)</f>
-        <v>7.6242126513996462</v>
+        <v>7.6625480804295805</v>
       </c>
       <c r="L15" s="28">
         <f>SUM($C15:K15)*(CL!K$47-1)</f>
-        <v>3.3031418966866624</v>
+        <v>3.3090465260338151</v>
       </c>
       <c r="M15" s="28">
         <f>SUM($C15:L15)*(CL!L$47-1)</f>
-        <v>1.4276910631377076</v>
+        <v>1.4256074899184064</v>
       </c>
       <c r="N15" s="28">
         <f>SUM($C15:M15)*(CL!M$47-1)</f>
-        <v>1.0842443857433786</v>
+        <v>1.0764987830575929</v>
       </c>
       <c r="O15" s="28"/>
       <c r="P15" s="27">
@@ -31371,18 +31531,18 @@
       </c>
       <c r="R15" s="20">
         <f t="shared" si="0"/>
-        <v>161.24085295831969</v>
+        <v>161.86571342034881</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="1"/>
-        <v>1844.2408529583197</v>
+        <v>1844.8657134203488</v>
       </c>
       <c r="T15" s="26">
         <f>S15/Data!A12</f>
-        <v>0.21918717054413117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.21926143492041228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>12</v>
       </c>
@@ -31413,27 +31573,27 @@
       </c>
       <c r="I16" s="28">
         <f>SUM($C16:H16)*(CL!H$47-1)</f>
-        <v>16.911645198512115</v>
+        <v>17.101968859317729</v>
       </c>
       <c r="J16" s="28">
         <f>SUM($C16:I16)*(CL!I$47-1)</f>
-        <v>7.4597123344919716</v>
+        <v>7.521045721014147</v>
       </c>
       <c r="K16" s="28">
         <f>SUM($C16:J16)*(CL!J$47-1)</f>
-        <v>3.249535456506139</v>
+        <v>3.2658744991809621</v>
       </c>
       <c r="L16" s="28">
         <f>SUM($C16:K16)*(CL!K$47-1)</f>
-        <v>1.4078406783661481</v>
+        <v>1.4103573057607917</v>
       </c>
       <c r="M16" s="28">
         <f>SUM($C16:L16)*(CL!L$47-1)</f>
-        <v>0.60849991241406953</v>
+        <v>0.60761186726607608</v>
       </c>
       <c r="N16" s="28">
         <f>SUM($C16:M16)*(CL!M$47-1)</f>
-        <v>0.46211861290936396</v>
+        <v>0.45881733949133441</v>
       </c>
       <c r="O16" s="28"/>
       <c r="P16" s="27">
@@ -31446,18 +31606,18 @@
       </c>
       <c r="R16" s="20">
         <f t="shared" si="0"/>
-        <v>140.03867914479122</v>
+        <v>140.30500254362255</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="1"/>
-        <v>786.03867914479122</v>
+        <v>786.30500254362255</v>
       </c>
       <c r="T16" s="26">
         <f>S16/Data!A13</f>
-        <v>0.10162103156364463</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.10165546251371979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>13</v>
       </c>
@@ -31488,27 +31648,27 @@
       </c>
       <c r="I17" s="28">
         <f>SUM($C17:H17)*(CL!H$47-1)</f>
-        <v>29.728727855973091</v>
+        <v>30.063294969357209</v>
       </c>
       <c r="J17" s="28">
         <f>SUM($C17:I17)*(CL!I$47-1)</f>
-        <v>13.113316609519966</v>
+        <v>13.221133651268419</v>
       </c>
       <c r="K17" s="28">
         <f>SUM($C17:J17)*(CL!J$47-1)</f>
-        <v>5.7123097197725938</v>
+        <v>5.7410318782264449</v>
       </c>
       <c r="L17" s="28">
         <f>SUM($C17:K17)*(CL!K$47-1)</f>
-        <v>2.4748220472008251</v>
+        <v>2.4792459888133673</v>
       </c>
       <c r="M17" s="28">
         <f>SUM($C17:L17)*(CL!L$47-1)</f>
-        <v>1.0696728842284891</v>
+        <v>1.0681118029606043</v>
       </c>
       <c r="N17" s="28">
         <f>SUM($C17:M17)*(CL!M$47-1)</f>
-        <v>0.81235138977318055</v>
+        <v>0.80654813066558106</v>
       </c>
       <c r="O17" s="28"/>
       <c r="P17" s="27">
@@ -31521,18 +31681,18 @@
       </c>
       <c r="R17" s="20">
         <f t="shared" si="0"/>
-        <v>465.765623762019</v>
+        <v>466.23378967684266</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" si="1"/>
-        <v>1381.765623762019</v>
+        <v>1382.2337896768427</v>
       </c>
       <c r="T17" s="54">
         <f>S17/Data!A14</f>
-        <v>0.16269464544472143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.16274976918366216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>14</v>
       </c>
@@ -31563,27 +31723,27 @@
       </c>
       <c r="I18" s="28">
         <f>SUM($C18:H18)*(CL!H$47-1)</f>
-        <v>9.7018166536606376</v>
+        <v>9.8110009015747313</v>
       </c>
       <c r="J18" s="28">
         <f>SUM($C18:I18)*(CL!I$47-1)</f>
-        <v>4.2794630864570893</v>
+        <v>4.3146486206733945</v>
       </c>
       <c r="K18" s="28">
         <f>SUM($C18:J18)*(CL!J$47-1)</f>
-        <v>1.8641827473630812</v>
+        <v>1.8735560752958018</v>
       </c>
       <c r="L18" s="28">
         <f>SUM($C18:K18)*(CL!K$47-1)</f>
-        <v>0.80764538155491028</v>
+        <v>0.80908911203067491</v>
       </c>
       <c r="M18" s="28">
         <f>SUM($C18:L18)*(CL!L$47-1)</f>
-        <v>0.34908221611279144</v>
+        <v>0.3485727653109994</v>
       </c>
       <c r="N18" s="28">
         <f>SUM($C18:M18)*(CL!M$47-1)</f>
-        <v>0.26510667661624476</v>
+        <v>0.26321281300632565</v>
       </c>
       <c r="O18" s="28"/>
       <c r="P18" s="27">
@@ -31596,18 +31756,18 @@
       </c>
       <c r="R18" s="20">
         <f t="shared" si="0"/>
-        <v>270.93206830162683</v>
+        <v>271.08485182775405</v>
       </c>
       <c r="S18" s="20">
         <f t="shared" si="1"/>
-        <v>450.93206830162683</v>
+        <v>451.08485182775405</v>
       </c>
       <c r="T18" s="54">
         <f>S18/Data!A15</f>
-        <v>5.1855113650141081E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>5.18726830528696E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>15</v>
       </c>
@@ -31638,27 +31798,27 @@
       </c>
       <c r="I19" s="28">
         <f>SUM($C19:H19)*(CL!H$47-1)</f>
-        <v>82.629860671121335</v>
+        <v>83.559777151167239</v>
       </c>
       <c r="J19" s="28">
         <f>SUM($C19:I19)*(CL!I$47-1)</f>
-        <v>36.447961366877962</v>
+        <v>36.747634705771176</v>
       </c>
       <c r="K19" s="28">
         <f>SUM($C19:J19)*(CL!J$47-1)</f>
-        <v>15.877146124174498</v>
+        <v>15.956978263737062</v>
       </c>
       <c r="L19" s="28">
         <f>SUM($C19:K19)*(CL!K$47-1)</f>
-        <v>6.8786731116359059</v>
+        <v>6.8909692879416165</v>
       </c>
       <c r="M19" s="28">
         <f>SUM($C19:L19)*(CL!L$47-1)</f>
-        <v>2.9731148206436919</v>
+        <v>2.9687758550382153</v>
       </c>
       <c r="N19" s="28">
         <f>SUM($C19:M19)*(CL!M$47-1)</f>
-        <v>2.25789958043775</v>
+        <v>2.2417696439728427</v>
       </c>
       <c r="O19" s="28"/>
       <c r="P19" s="27">
@@ -31671,18 +31831,18 @@
       </c>
       <c r="R19" s="20">
         <f t="shared" si="0"/>
-        <v>3517.5646391848773</v>
+        <v>3518.8658884176143</v>
       </c>
       <c r="S19" s="20">
         <f t="shared" si="1"/>
-        <v>3840.5646391848773</v>
+        <v>3841.8658884176143</v>
       </c>
       <c r="T19" s="54">
         <f>S19/Data!A16</f>
-        <v>0.43782086630014561</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+        <v>0.43796920752594781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -31703,7 +31863,7 @@
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -31723,19 +31883,19 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="24">
         <f>SUM(R4:R19)</f>
-        <v>4636.8339700217657</v>
+        <v>4646.1221885118939</v>
       </c>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
@@ -31755,7 +31915,7 @@
       <c r="S25" s="20"/>
       <c r="T25" s="19"/>
     </row>
-    <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -31775,7 +31935,7 @@
       <c r="S26" s="20"/>
       <c r="T26" s="19"/>
     </row>
-    <row r="27" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
@@ -31795,7 +31955,7 @@
       <c r="S27" s="20"/>
       <c r="T27" s="19"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -31815,7 +31975,7 @@
       <c r="S28" s="20"/>
       <c r="T28" s="19"/>
     </row>
-    <row r="29" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -31835,7 +31995,7 @@
       <c r="S29" s="20"/>
       <c r="T29" s="19"/>
     </row>
-    <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C30" s="22"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
@@ -31855,7 +32015,7 @@
       <c r="S30" s="20"/>
       <c r="T30" s="19"/>
     </row>
-    <row r="31" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="22"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -31875,7 +32035,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="19"/>
     </row>
-    <row r="32" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="22"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
@@ -31895,7 +32055,7 @@
       <c r="S32" s="20"/>
       <c r="T32" s="19"/>
     </row>
-    <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C33" s="22"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
@@ -31915,7 +32075,7 @@
       <c r="S33" s="20"/>
       <c r="T33" s="19"/>
     </row>
-    <row r="34" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="22"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
@@ -31935,7 +32095,7 @@
       <c r="S34" s="20"/>
       <c r="T34" s="19"/>
     </row>
-    <row r="35" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
@@ -31955,7 +32115,7 @@
       <c r="S35" s="20"/>
       <c r="T35" s="19"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
@@ -31975,7 +32135,7 @@
       <c r="S36" s="20"/>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C37" s="22"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
@@ -31995,7 +32155,7 @@
       <c r="S37" s="20"/>
       <c r="T37" s="19"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
@@ -32015,7 +32175,7 @@
       <c r="S38" s="20"/>
       <c r="T38" s="19"/>
     </row>
-    <row r="39" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C39" s="22"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
@@ -32035,7 +32195,7 @@
       <c r="S39" s="20"/>
       <c r="T39" s="19"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="C40" s="22"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
@@ -32055,13 +32215,13 @@
       <c r="S40" s="20"/>
       <c r="T40" s="19"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="P41" s="1"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="19"/>
       <c r="S41" s="3"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="20"/>
@@ -32070,57 +32230,57 @@
       <c r="T42" s="18"/>
       <c r="U42" s="18"/>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" t="str">
-        <f t="shared" ref="C60:O60" si="2">IF(C42&gt;0,C21/C42,"")</f>
+        <f t="shared" ref="C60:O60" si="3">IF(C42&gt;0,C21/C42,"")</f>
         <v/>
       </c>
       <c r="D60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/static/output/Excel/compareLR1-sol3.xlsx
+++ b/static/output/Excel/compareLR1-sol3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F4556B-52C8-5049-9234-4B13E7340D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5890D3A-5B59-4447-A774-3B9563C6D4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24580" yWindow="500" windowWidth="25460" windowHeight="23220" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="21580" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -391,7 +391,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,12 +484,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -12036,7 +12030,7 @@
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="N35" sqref="C20:N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13461,14 +13455,26 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C20:O35">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="O20:O35">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:N35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -15345,7 +15351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E262303B-5149-4F07-A751-B8E65AA820B6}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
@@ -16832,8 +16838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E2F9D-5EE6-4E52-93CB-1EC2C9946980}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O35" sqref="B20:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16961,7 +16967,7 @@
         <v>2013</v>
       </c>
       <c r="Q3" s="20">
-        <f t="shared" ref="Q2:Q17" si="1">S3-P3</f>
+        <f t="shared" ref="Q3:Q17" si="1">S3-P3</f>
         <v>0</v>
       </c>
       <c r="R3" s="33">
@@ -18296,14 +18302,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C20:O35">
+  <conditionalFormatting sqref="B20:O35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color theme="0"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -21918,7 +21924,7 @@
   <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23379,14 +23385,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C20:O35">
+  <conditionalFormatting sqref="C20:O36">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color theme="0"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -26507,7 +26513,7 @@
   <dimension ref="A1:AB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="O36" sqref="C20:O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -28037,14 +28043,14 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C20:O35">
+  <conditionalFormatting sqref="C20:O36">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="1"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
+        <color theme="0"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -29824,27 +29830,27 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="31">
-        <f>LN(G44-1)</f>
+        <f t="shared" ref="G53:L53" si="1">LN(G44-1)</f>
         <v>-2.9216545063407944</v>
       </c>
       <c r="H53" s="31">
-        <f>LN(H44-1)</f>
+        <f t="shared" si="1"/>
         <v>-3.7620531760993106</v>
       </c>
       <c r="I53" s="31">
-        <f>LN(I44-1)</f>
+        <f t="shared" si="1"/>
         <v>-4.7066559478365573</v>
       </c>
       <c r="J53" s="31">
-        <f>LN(J44-1)</f>
+        <f t="shared" si="1"/>
         <v>-5.5257919509156999</v>
       </c>
       <c r="K53" s="31">
-        <f>LN(K44-1)</f>
+        <f t="shared" si="1"/>
         <v>-6.222774661088569</v>
       </c>
       <c r="L53" s="31">
-        <f>LN(L44-1)</f>
+        <f t="shared" si="1"/>
         <v>-7.1884127364969252</v>
       </c>
       <c r="M53" s="31"/>
@@ -29891,27 +29897,27 @@
         <v>6</v>
       </c>
       <c r="G55" s="1">
-        <f t="shared" ref="G55:L55" si="1">_xlfn.FORECAST.LINEAR(G2,$G$53:$L$53,$G$2:$L$2)</f>
+        <f t="shared" ref="G55:L55" si="2">_xlfn.FORECAST.LINEAR(G2,$G$53:$L$53,$G$2:$L$2)</f>
         <v>-2.9449077624991022</v>
       </c>
       <c r="H55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3.7887675227513187</v>
       </c>
       <c r="I55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.6326272830035347</v>
       </c>
       <c r="J55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.4764870432557515</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-6.3203468035079675</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7.1642065637601835</v>
       </c>
       <c r="M55" s="1"/>
@@ -29936,27 +29942,27 @@
         <v>4</v>
       </c>
       <c r="G56" s="4">
-        <f t="shared" ref="G56:L56" si="2">EXP(G55)+1</f>
+        <f t="shared" ref="G56:L56" si="3">EXP(G55)+1</f>
         <v>1.0526069119225829</v>
       </c>
       <c r="H56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0226234675847377</v>
       </c>
       <c r="I56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0097291642267632</v>
       </c>
       <c r="J56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.004184002129505</v>
       </c>
       <c r="K56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0017993193877379</v>
       </c>
       <c r="L56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0007737926891238</v>
       </c>
       <c r="M56" s="1"/>
@@ -30303,47 +30309,47 @@
         <v>8.407373119758664E-2</v>
       </c>
       <c r="D69" s="39">
-        <f t="shared" ref="D69:N69" si="3">1/D68-1/C68</f>
+        <f t="shared" ref="D69:N69" si="4">1/D68-1/C68</f>
         <v>0.31496427522328219</v>
       </c>
       <c r="E69" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.26365741228551021</v>
       </c>
       <c r="F69" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15886872995126788</v>
       </c>
       <c r="G69" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.0697371385319858E-2</v>
       </c>
       <c r="H69" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9120290458300797E-2</v>
       </c>
       <c r="I69" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1749790226431753E-2</v>
       </c>
       <c r="J69" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.5650488000001976E-3</v>
       </c>
       <c r="K69" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1534448955764525E-3</v>
       </c>
       <c r="L69" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7936517015642028E-3</v>
       </c>
       <c r="M69" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.727432297904846E-4</v>
       </c>
       <c r="N69" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.8351064536932284E-4</v>
       </c>
       <c r="O69"/>

--- a/static/output/Excel/compareLR1-sol3.xlsx
+++ b/static/output/Excel/compareLR1-sol3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-2024/static/output/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bavanzi/Dropbox/Mac (3)/Documents/GitHub/ACTL20004-ACTL90021-Tutorials/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5890D3A-5B59-4447-A774-3B9563C6D4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18191448-34B9-3949-9753-E33D1C0C39F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="760" windowWidth="30220" windowHeight="21580" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31120" yWindow="320" windowWidth="30220" windowHeight="21580" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
@@ -612,7 +612,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -682,6 +682,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5800,49 +5801,49 @@
                   <c:v>9.9410355629261107E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19804406704747146</c:v>
+                  <c:v>0.1980665390600343</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9.9940393403536665E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20404072694569139</c:v>
+                  <c:v>0.20406540286995145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10220095110648901</c:v>
+                  <c:v>0.1022068477878233</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.19937316413147535</c:v>
+                  <c:v>0.19939578695636401</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9854291137689941E-2</c:v>
+                  <c:v>9.993410336574432E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20474235186236217</c:v>
+                  <c:v>0.20476711263852196</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.9077114768141572E-2</c:v>
+                  <c:v>9.9082831213702816E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19987387778650234</c:v>
+                  <c:v>0.19989655742724879</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1039087369575771</c:v>
+                  <c:v>0.1039917898511124</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20691913639022155</c:v>
+                  <c:v>0.20694416041858077</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.6172964654499551E-2</c:v>
+                  <c:v>9.6178513539508945E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.18221818695261624</c:v>
+                  <c:v>0.18223886320637847</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11846905663592197</c:v>
+                  <c:v>0.11856374740241668</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20094783972697425</c:v>
+                  <c:v>0.20097214160899332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13455,6 +13456,18 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C20:N35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O20:O35">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -13467,18 +13480,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:N35">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -13487,8 +13488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2807277-F5B5-4DF4-A542-746EEE170427}">
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:Q35"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38:O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -14606,14 +14607,11 @@
         <f t="array" ref="M32">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
         <v>1.0001915395638561</v>
       </c>
-      <c r="N32" s="45" cm="1">
-        <f t="array" ref="N32">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H24:$J24-1),$H$2:$J$2-8))+1</f>
-        <v>1.0000801652685876</v>
-      </c>
-      <c r="O32" s="44" cm="1">
-        <f t="array" ref="O32">EXP(INTERCEPT(LN(H24:J24-1),H$2:J$2-5))*EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5))^(12-5)/(1-EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5)))+1</f>
-        <v>1.000057701557368</v>
-      </c>
+      <c r="N32" s="44" cm="1">
+        <f t="array" ref="N32">EXP(INTERCEPT(LN(H24:J24-1),H$2:J$2-5))*EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5))^(11-5)/(1-EXP(SLOPE(LN(H24:J24-1),H$2:J$2-5)))+1</f>
+        <v>1.0001378668259555</v>
+      </c>
+      <c r="O32" s="63"/>
       <c r="Q32" s="62" t="s">
         <v>71</v>
       </c>
@@ -14679,14 +14677,11 @@
         <f t="array" ref="M33">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H25:$K25-1),$H$2:$K$2-8))+1</f>
         <v>1.0003740919393094</v>
       </c>
-      <c r="N33" s="45" cm="1">
-        <f t="array" ref="N33">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H25:$K25-1),$H$2:$K$2-8))+1</f>
-        <v>1.0001569724811699</v>
-      </c>
-      <c r="O33" s="44" cm="1">
-        <f t="array" ref="O33">EXP(INTERCEPT(LN(H25:K25-1),H$2:K$2-5))*EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5))^(12-5)/(1-EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5)))+1</f>
-        <v>1.0001134875706477</v>
-      </c>
+      <c r="N33" s="44" cm="1">
+        <f t="array" ref="N33">EXP(INTERCEPT(LN(H25:K25-1),H$2:K$2-5))*EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5))^(11-5)/(1-EXP(SLOPE(LN(H25:K25-1),H$2:K$2-5)))+1</f>
+        <v>1.0002704600518175</v>
+      </c>
+      <c r="O33" s="63"/>
       <c r="Q33" s="62" t="s">
         <v>71</v>
       </c>
@@ -14750,14 +14745,11 @@
         <f t="array" ref="M34">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H26:$L26-1),$H$2:$L$2-8))+1</f>
         <v>1.0015093646777935</v>
       </c>
-      <c r="N34" s="45" cm="1">
-        <f t="array" ref="N34">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H26:$L26-1),$H$2:$L$2-8))+1</f>
-        <v>1.0007693669727284</v>
-      </c>
-      <c r="O34" s="44" cm="1">
-        <f t="array" ref="O34">EXP(INTERCEPT(LN(H26:L26-1),H$2:L$2-5))*EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5))^(12-5)/(1-EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5)))+1</f>
-        <v>1.0007999018573626</v>
-      </c>
+      <c r="N34" s="44" cm="1">
+        <f t="array" ref="N34">EXP(INTERCEPT(LN(H26:L26-1),H$2:L$2-5))*EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5))^(11-5)/(1-EXP(SLOPE(LN(H26:L26-1),H$2:L$2-5)))+1</f>
+        <v>1.001569268830091</v>
+      </c>
+      <c r="O34" s="63"/>
       <c r="Q34" s="62" t="s">
         <v>71</v>
       </c>
@@ -14821,14 +14813,11 @@
         <f t="array" ref="M35">EXP(_xlfn.FORECAST.LINEAR(M$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
         <v>1.0002064321554904</v>
       </c>
-      <c r="N35" s="45" cm="1">
-        <f t="array" ref="N35">EXP(_xlfn.FORECAST.LINEAR(N$2-8,LN($H27:$K27-1),$H$2:$K$2-8))+1</f>
-        <v>1.0001087146504721</v>
-      </c>
-      <c r="O35" s="44" cm="1">
-        <f t="array" ref="O35">EXP(INTERCEPT(LN(H27:K27-1),H$2:K$2-5))*EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5))^(12-5)/(1-EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5)))+1</f>
-        <v>1.0001209494166381</v>
-      </c>
+      <c r="N35" s="44" cm="1">
+        <f t="array" ref="N35">EXP(INTERCEPT(LN(H27:K27-1),H$2:K$2-5))*EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5))^(11-5)/(1-EXP(SLOPE(LN(H27:K27-1),H$2:K$2-5)))+1</f>
+        <v>1.0002296640671104</v>
+      </c>
+      <c r="O35" s="63"/>
       <c r="Q35" s="62" t="s">
         <v>71</v>
       </c>
@@ -14893,55 +14882,54 @@
       </c>
       <c r="C39" s="47">
         <f>PRODUCT(C32:$O32)</f>
-        <v>11.112345436937888</v>
+        <v>11.112345385543033</v>
       </c>
       <c r="D39" s="47">
         <f>PRODUCT(D32:$O32)</f>
-        <v>2.2416047375864863</v>
+        <v>2.2416047272190123</v>
       </c>
       <c r="E39" s="47">
         <f>PRODUCT(E32:$O32)</f>
-        <v>1.3948906633431408</v>
+        <v>1.3948906568917392</v>
       </c>
       <c r="F39" s="47">
         <f>PRODUCT(F32:$O32)</f>
-        <v>1.1516111542861376</v>
+        <v>1.1516111489599095</v>
       </c>
       <c r="G39" s="47">
         <f>PRODUCT(G32:$O32)</f>
-        <v>1.0641630585644835</v>
+        <v>1.0641630536427047</v>
       </c>
       <c r="H39" s="47">
         <f>PRODUCT(H32:$O32)</f>
-        <v>1.024693923577104</v>
+        <v>1.024693918837871</v>
       </c>
       <c r="I39" s="47">
         <f>PRODUCT(I32:$O32)</f>
-        <v>1.0107695113751853</v>
+        <v>1.010769506700353</v>
       </c>
       <c r="J39" s="47">
         <f>PRODUCT(J32:$O32)</f>
-        <v>1.0044990859246774</v>
+        <v>1.0044990812788459</v>
       </c>
       <c r="K39" s="47">
         <f>PRODUCT(K32:$O32)</f>
-        <v>1.0018815563188543</v>
+        <v>1.0018815516851289</v>
       </c>
       <c r="L39" s="47">
         <f>PRODUCT(L32:$O32)</f>
-        <v>1.0007872353122556</v>
+        <v>1.0007872306835912</v>
       </c>
       <c r="M39" s="47">
         <f>PRODUCT(M32:$O32)</f>
-        <v>1.00032943742331</v>
+        <v>1.0003294327967633</v>
       </c>
       <c r="N39" s="47">
         <f>PRODUCT(N32:$O32)</f>
-        <v>1.0001378714516163</v>
+        <v>1.0001378668259555</v>
       </c>
       <c r="O39" s="47">
-        <f>PRODUCT(O32:$O32)</f>
-        <v>1.000057701557368</v>
+        <v>1</v>
       </c>
       <c r="P39" s="47"/>
     </row>
@@ -14951,55 +14939,55 @@
       </c>
       <c r="C40" s="58">
         <f>1/C39</f>
-        <v>8.9990003071355157E-2</v>
+        <v>8.9990003487561004E-2</v>
       </c>
       <c r="D40" s="58">
-        <f t="shared" ref="D40:O40" si="1">1/D39-1/C39</f>
-        <v>0.35611897556896044</v>
+        <f>1/D39-1/C39</f>
+        <v>0.35611897721601893</v>
       </c>
       <c r="E40" s="58">
-        <f t="shared" si="1"/>
-        <v>0.27079308851044975</v>
+        <f t="shared" ref="D40:O40" si="1">1/E39-1/D39</f>
+        <v>0.27079308976287408</v>
       </c>
       <c r="F40" s="58">
         <f t="shared" si="1"/>
-        <v>0.15144659053472009</v>
+        <v>0.15144659123516391</v>
       </c>
       <c r="G40" s="58">
         <f t="shared" si="1"/>
-        <v>7.1356955990827475E-2</v>
+        <v>7.1356956320855147E-2</v>
       </c>
       <c r="H40" s="58">
         <f t="shared" si="1"/>
-        <v>3.6195557386651922E-2</v>
+        <v>3.6195557554057234E-2</v>
       </c>
       <c r="I40" s="58">
         <f t="shared" si="1"/>
-        <v>1.34440641721848E-2</v>
+        <v>1.3444064234363839E-2</v>
       </c>
       <c r="J40" s="58">
         <f t="shared" si="1"/>
-        <v>6.1758299527436833E-3</v>
+        <v>6.1758299813070572E-3</v>
       </c>
       <c r="K40" s="58">
         <f t="shared" si="1"/>
-        <v>2.6009120987555701E-3</v>
+        <v>2.6009121107849476E-3</v>
       </c>
       <c r="L40" s="58">
         <f t="shared" si="1"/>
-        <v>1.0914066530354205E-3</v>
+        <v>1.0914066580833826E-3</v>
       </c>
       <c r="M40" s="58">
         <f t="shared" si="1"/>
-        <v>4.5728713027981538E-4</v>
+        <v>4.5728713239445717E-4</v>
       </c>
       <c r="N40" s="58">
         <f t="shared" si="1"/>
-        <v>1.9147648433648357E-4</v>
+        <v>1.9147648522210847E-4</v>
       </c>
       <c r="O40" s="58">
-        <f t="shared" si="1"/>
-        <v>8.0154217609096357E-5</v>
+        <f>1/O39-1/N39</f>
+        <v>1.3784782131387452E-4</v>
       </c>
       <c r="P40" s="58"/>
     </row>
@@ -15009,110 +14997,109 @@
       </c>
       <c r="C41" s="47">
         <f>PRODUCT(C33:$O33)</f>
-        <v>27.32171452141132</v>
+        <v>27.321714034822286</v>
       </c>
       <c r="D41" s="47">
         <f>PRODUCT(D33:$O33)</f>
-        <v>3.2976535609720856</v>
+        <v>3.2976535022421669</v>
       </c>
       <c r="E41" s="47">
         <f>PRODUCT(E33:$O33)</f>
-        <v>1.6896885292321806</v>
+        <v>1.6896884991394896</v>
       </c>
       <c r="F41" s="47">
         <f>PRODUCT(F33:$O33)</f>
-        <v>1.2844805269157793</v>
+        <v>1.2844805040396841</v>
       </c>
       <c r="G41" s="47">
         <f>PRODUCT(G33:$O33)</f>
-        <v>1.1181946934721876</v>
+        <v>1.1181946735575781</v>
       </c>
       <c r="H41" s="47">
         <f>PRODUCT(H33:$O33)</f>
-        <v>1.0519588030148979</v>
+        <v>1.0519587842799234</v>
       </c>
       <c r="I41" s="47">
         <f>PRODUCT(I33:$O33)</f>
-        <v>1.0209191503568356</v>
+        <v>1.0209191321746651</v>
       </c>
       <c r="J41" s="47">
         <f>PRODUCT(J33:$O33)</f>
-        <v>1.0087466508394161</v>
+        <v>1.0087466328740333</v>
       </c>
       <c r="K41" s="47">
         <f>PRODUCT(K33:$O33)</f>
-        <v>1.0036646880898161</v>
+        <v>1.003664670214941</v>
       </c>
       <c r="L41" s="47">
         <f>PRODUCT(L33:$O33)</f>
-        <v>1.0015367700140911</v>
+        <v>1.0015367521771132</v>
       </c>
       <c r="M41" s="47">
         <f>PRODUCT(M33:$O33)</f>
-        <v>1.0006446709891419</v>
+        <v>1.0006446531680522</v>
       </c>
       <c r="N41" s="47">
         <f>PRODUCT(N33:$O33)</f>
-        <v>1.000270477866243</v>
+        <v>1.0002704600518175</v>
       </c>
       <c r="O41" s="47">
-        <f>PRODUCT(O33:$O33)</f>
-        <v>1.0001134875706477</v>
+        <v>1</v>
       </c>
       <c r="P41" s="47"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C42" s="58">
         <f>1/C41</f>
-        <v>3.6600924119030889E-2</v>
+        <v>3.660092477087902E-2</v>
       </c>
       <c r="D42" s="58">
         <f t="shared" ref="D42:O42" si="2">1/D41-1/C41</f>
-        <v>0.26664499953864379</v>
+        <v>0.26664500428748689</v>
       </c>
       <c r="E42" s="58">
         <f t="shared" si="2"/>
-        <v>0.28857912735004854</v>
+        <v>0.28857913248952982</v>
       </c>
       <c r="F42" s="58">
         <f t="shared" si="2"/>
-        <v>0.1866997915612354</v>
+        <v>0.18669979488628574</v>
       </c>
       <c r="G42" s="58">
         <f t="shared" si="2"/>
-        <v>0.11577380313005414</v>
+        <v>0.11577380519194014</v>
       </c>
       <c r="H42" s="58">
         <f t="shared" si="2"/>
-        <v>5.6308922899695912E-2</v>
+        <v>5.6308923902536057E-2</v>
       </c>
       <c r="I42" s="58">
         <f t="shared" si="2"/>
-        <v>2.8901925028162911E-2</v>
+        <v>2.8901925542894946E-2</v>
       </c>
       <c r="J42" s="58">
         <f t="shared" si="2"/>
-        <v>1.181969608380784E-2</v>
+        <v>1.1819696294311788E-2</v>
       </c>
       <c r="K42" s="58">
         <f t="shared" si="2"/>
-        <v>5.0195031014680369E-3</v>
+        <v>5.0195031908635279E-3</v>
       </c>
       <c r="L42" s="58">
         <f t="shared" si="2"/>
-        <v>2.1168952120750317E-3</v>
+        <v>2.1168952497762072E-3</v>
       </c>
       <c r="M42" s="58">
         <f t="shared" si="2"/>
-        <v>8.9015631956679275E-4</v>
+        <v>8.9015633541988937E-4</v>
       </c>
       <c r="N42" s="58">
         <f t="shared" si="2"/>
-        <v>3.7385092846153878E-4</v>
+        <v>3.7385093511965728E-4</v>
       </c>
       <c r="O42" s="58">
         <f t="shared" si="2"/>
-        <v>1.5693003506878078E-4</v>
+        <v>2.7038692295633382E-4</v>
       </c>
       <c r="P42" s="58"/>
     </row>
@@ -15122,110 +15109,109 @@
       </c>
       <c r="C43" s="47">
         <f>PRODUCT(C34:$O34)</f>
-        <v>81.897496357715809</v>
+        <v>81.897446035516651</v>
       </c>
       <c r="D43" s="47">
         <f>PRODUCT(D34:$O34)</f>
-        <v>5.727949894066434</v>
+        <v>5.7279463745078623</v>
       </c>
       <c r="E43" s="47">
         <f>PRODUCT(E34:$O34)</f>
-        <v>2.2727026999037783</v>
+        <v>2.2727013034337644</v>
       </c>
       <c r="F43" s="47">
         <f>PRODUCT(F34:$O34)</f>
-        <v>1.4934559342239986</v>
+        <v>1.4934550165648477</v>
       </c>
       <c r="G43" s="47">
         <f>PRODUCT(G34:$O34)</f>
-        <v>1.2131516779512206</v>
+        <v>1.213150932525987</v>
       </c>
       <c r="H43" s="47">
         <f>PRODUCT(H34:$O34)</f>
-        <v>1.0991229905930908</v>
+        <v>1.0991223152331777</v>
       </c>
       <c r="I43" s="47">
         <f>PRODUCT(I34:$O34)</f>
-        <v>1.0463104104911052</v>
+        <v>1.0463097675820641</v>
       </c>
       <c r="J43" s="47">
         <f>PRODUCT(J34:$O34)</f>
-        <v>1.0234283979457448</v>
+        <v>1.0234277690966351</v>
       </c>
       <c r="K43" s="47">
         <f>PRODUCT(K34:$O34)</f>
-        <v>1.0118962002838601</v>
+        <v>1.0118955785207491</v>
       </c>
       <c r="L43" s="47">
         <f>PRODUCT(L34:$O34)</f>
-        <v>1.0060518554127877</v>
+        <v>1.0060512372407544</v>
       </c>
       <c r="M43" s="47">
         <f>PRODUCT(M34:$O34)</f>
-        <v>1.0030816184537874</v>
+        <v>1.0030810021068266</v>
       </c>
       <c r="N43" s="47">
         <f>PRODUCT(N34:$O34)</f>
-        <v>1.0015698842481615</v>
+        <v>1.001569268830091</v>
       </c>
       <c r="O43" s="47">
-        <f>PRODUCT(O34:$O34)</f>
-        <v>1.0007999018573626</v>
+        <v>1</v>
       </c>
       <c r="P43" s="47"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C44" s="58">
         <f>1/C43</f>
-        <v>1.2210385475425916E-2</v>
+        <v>1.2210392978144004E-2</v>
       </c>
       <c r="D44" s="58">
         <f t="shared" ref="D44:O44" si="3">1/D43-1/C43</f>
-        <v>0.16237214727959992</v>
+        <v>0.16237224704978725</v>
       </c>
       <c r="E44" s="58">
         <f t="shared" si="3"/>
-        <v>0.26542222459503939</v>
+        <v>0.26542238768474102</v>
       </c>
       <c r="F44" s="58">
         <f t="shared" si="3"/>
-        <v>0.22958312742378389</v>
+        <v>0.22958326849201544</v>
       </c>
       <c r="G44" s="58">
         <f t="shared" si="3"/>
-        <v>0.15471135016502291</v>
+        <v>0.15471144522800406</v>
       </c>
       <c r="H44" s="58">
         <f t="shared" si="3"/>
-        <v>8.5517053646262831E-2</v>
+        <v>8.5517106192543602E-2</v>
       </c>
       <c r="I44" s="58">
         <f t="shared" si="3"/>
-        <v>4.5923031193430108E-2</v>
+        <v>4.592305941101249E-2</v>
       </c>
       <c r="J44" s="58">
         <f t="shared" si="3"/>
-        <v>2.1368606879742624E-2</v>
+        <v>2.1368620009764805E-2</v>
       </c>
       <c r="K44" s="58">
         <f t="shared" si="3"/>
-        <v>1.1135728886082275E-2</v>
+        <v>1.1135735728473595E-2</v>
       </c>
       <c r="L44" s="58">
         <f t="shared" si="3"/>
-        <v>5.7408936811521594E-3</v>
+        <v>5.74089720866644E-3</v>
       </c>
       <c r="M44" s="58">
         <f t="shared" si="3"/>
-        <v>2.9432995186732258E-3</v>
+        <v>2.9433013271946695E-3</v>
       </c>
       <c r="N44" s="58">
         <f t="shared" si="3"/>
-        <v>1.5047276812031329E-3</v>
+        <v>1.5047286057888742E-3</v>
       </c>
       <c r="O44" s="58">
         <f t="shared" si="3"/>
-        <v>7.681610487979551E-4</v>
+        <v>1.5668100838637233E-3</v>
       </c>
       <c r="P44" s="58"/>
     </row>
@@ -15235,110 +15221,109 @@
       </c>
       <c r="C45" s="47">
         <f>PRODUCT(C35:$O35)</f>
-        <v>5.4579803386051235</v>
+        <v>5.457980266854765</v>
       </c>
       <c r="D45" s="47">
         <f>PRODUCT(D35:$O35)</f>
-        <v>1.6574897582037946</v>
+        <v>1.6574897364145105</v>
       </c>
       <c r="E45" s="47">
         <f>PRODUCT(E35:$O35)</f>
-        <v>1.2140620774761346</v>
+        <v>1.2140620615161304</v>
       </c>
       <c r="F45" s="47">
         <f>PRODUCT(F35:$O35)</f>
-        <v>1.0819414976162045</v>
+        <v>1.0819414833930514</v>
       </c>
       <c r="G45" s="47">
         <f>PRODUCT(G35:$O35)</f>
-        <v>1.0345978542198717</v>
+        <v>1.0345978406190959</v>
       </c>
       <c r="H45" s="47">
         <f>PRODUCT(H35:$O35)</f>
-        <v>1.0132854082007403</v>
+        <v>1.013285394880137</v>
       </c>
       <c r="I45" s="47">
         <f>PRODUCT(I35:$O35)</f>
-        <v>1.0056805228907448</v>
+        <v>1.0056805096701151</v>
       </c>
       <c r="J45" s="47">
         <f>PRODUCT(J35:$O35)</f>
-        <v>1.0029887989076502</v>
+        <v>1.0029887857224056</v>
       </c>
       <c r="K45" s="47">
         <f>PRODUCT(K35:$O35)</f>
-        <v>1.0015732402173452</v>
+        <v>1.0015732270507092</v>
       </c>
       <c r="L45" s="47">
         <f>PRODUCT(L35:$O35)</f>
-        <v>1.0008283101980939</v>
+        <v>1.000828297041251</v>
       </c>
       <c r="M45" s="47">
         <f>PRODUCT(M35:$O35)</f>
-        <v>1.0004361567843369</v>
+        <v>1.0004361436326492</v>
       </c>
       <c r="N45" s="47">
         <f>PRODUCT(N35:$O35)</f>
-        <v>1.0002296772160837</v>
+        <v>1.0002296640671104</v>
       </c>
       <c r="O45" s="47">
-        <f>PRODUCT(O35:$O35)</f>
-        <v>1.0001209494166381</v>
+        <v>1</v>
       </c>
       <c r="P45" s="47"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.15">
       <c r="C46" s="58">
         <f>1/C45</f>
-        <v>0.18321795572014948</v>
+        <v>0.18321795812872432</v>
       </c>
       <c r="D46" s="58">
         <f t="shared" ref="D46:O46" si="4">1/D45-1/C45</f>
-        <v>0.4201040226211768</v>
+        <v>0.42010402814384507</v>
       </c>
       <c r="E46" s="58">
         <f t="shared" si="4"/>
-        <v>0.22035913200095558</v>
+        <v>0.22035913489778658</v>
       </c>
       <c r="F46" s="58">
         <f t="shared" si="4"/>
-        <v>0.10058328121979176</v>
+        <v>0.10058328254205495</v>
       </c>
       <c r="G46" s="58">
         <f t="shared" si="4"/>
-        <v>4.2294736625989482E-2</v>
+        <v>4.2294737181994169E-2</v>
       </c>
       <c r="H46" s="58">
         <f t="shared" si="4"/>
-        <v>2.0329651524722103E-2</v>
+        <v>2.0329651791974657E-2</v>
       </c>
       <c r="I46" s="58">
         <f t="shared" si="4"/>
-        <v>7.4627834711008534E-3</v>
+        <v>7.462783569206155E-3</v>
       </c>
       <c r="J46" s="58">
         <f t="shared" si="4"/>
-        <v>2.6685442082350352E-3</v>
+        <v>2.6685442433158624E-3</v>
       </c>
       <c r="K46" s="58">
         <f t="shared" si="4"/>
-        <v>1.409123587528649E-3</v>
+        <v>1.4091236060531642E-3</v>
       </c>
       <c r="L46" s="58">
         <f t="shared" si="4"/>
-        <v>7.4314435220912411E-4</v>
+        <v>7.4314436197819855E-4</v>
       </c>
       <c r="M46" s="58">
         <f t="shared" si="4"/>
-        <v>3.9165803360952101E-4</v>
+        <v>3.916580387582913E-4</v>
       </c>
       <c r="N46" s="58">
         <f t="shared" si="4"/>
-        <v>2.0634215795845012E-4</v>
+        <v>2.0634216067083599E-4</v>
       </c>
       <c r="O46" s="58">
         <f t="shared" si="4"/>
-        <v>1.0868968692734349E-4</v>
+        <v>2.2961133363774699E-4</v>
       </c>
       <c r="P46" s="58"/>
     </row>
@@ -15351,8 +15336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E262303B-5149-4F07-A751-B8E65AA820B6}">
   <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15611,7 +15596,7 @@
       </c>
       <c r="O5" s="28">
         <f>SUM($C5:N5)*('CL quarter'!$N$33-1)</f>
-        <v>0.31598560459492653</v>
+        <v>0.54443608430867307</v>
       </c>
       <c r="P5" s="27">
         <f>SUM(C5:N5)</f>
@@ -15623,15 +15608,15 @@
       </c>
       <c r="R5" s="20">
         <f t="shared" si="1"/>
-        <v>0.31598560459497094</v>
+        <v>0.54443608430869972</v>
       </c>
       <c r="S5" s="20">
         <f t="shared" si="2"/>
-        <v>2013.315985604595</v>
+        <v>2013.5444360843087</v>
       </c>
       <c r="T5" s="26">
         <f t="shared" si="3"/>
-        <v>0.19804406704747146</v>
+        <v>0.1980665390600343</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -15774,7 +15759,7 @@
       </c>
       <c r="O7" s="28">
         <f>SUM($C7:N7)*('CL quarter'!$N$35-1)</f>
-        <v>0.22960534179713932</v>
+        <v>0.48505050973726327</v>
       </c>
       <c r="P7" s="27">
         <f>SUM(C7:N7)</f>
@@ -15786,15 +15771,15 @@
       </c>
       <c r="R7" s="20">
         <f t="shared" si="1"/>
-        <v>0.22960534179719616</v>
+        <v>0.48505050973744801</v>
       </c>
       <c r="S7" s="20">
         <f t="shared" si="2"/>
-        <v>2112.2296053417972</v>
+        <v>2112.4850505097374</v>
       </c>
       <c r="T7" s="26">
         <f t="shared" si="3"/>
-        <v>0.20404072694569139</v>
+        <v>0.20406540286995145</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -15856,7 +15841,7 @@
       </c>
       <c r="O8" s="28">
         <f>SUM($C8:N8)*('CL quarter'!$N$32-1)</f>
-        <v>8.0325599124737135E-2</v>
+        <v>0.13814255960742372</v>
       </c>
       <c r="P8" s="27">
         <f>SUM(C8:N8)</f>
@@ -15868,15 +15853,15 @@
       </c>
       <c r="R8" s="20">
         <f t="shared" si="1"/>
-        <v>8.0325599124762448E-2</v>
+        <v>0.13814255960744504</v>
       </c>
       <c r="S8" s="20">
         <f t="shared" si="2"/>
-        <v>1002.0803255991248</v>
+        <v>1002.1381425596074</v>
       </c>
       <c r="T8" s="26">
         <f t="shared" si="3"/>
-        <v>0.10220095110648901</v>
+        <v>0.1022068477878233</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -15938,7 +15923,7 @@
       </c>
       <c r="O9" s="28">
         <f>SUM($C9:N9)*('CL quarter'!$N$33-1)</f>
-        <v>0.32458349724127022</v>
+        <v>0.55925005981139397</v>
       </c>
       <c r="P9" s="27">
         <f>SUM(C9:M9)</f>
@@ -15950,15 +15935,15 @@
       </c>
       <c r="R9" s="20">
         <f t="shared" si="1"/>
-        <v>1.09783153579383</v>
+        <v>1.3324980983638852</v>
       </c>
       <c r="S9" s="20">
         <f t="shared" si="2"/>
-        <v>2068.0978315357938</v>
+        <v>2068.3324980983639</v>
       </c>
       <c r="T9" s="26">
         <f t="shared" si="3"/>
-        <v>0.19937316413147535</v>
+        <v>0.19939578695636401</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -16020,7 +16005,7 @@
       </c>
       <c r="O10" s="28">
         <f>SUM($C10:N10)*('CL quarter'!$N$34-1)</f>
-        <v>0.64452341356472265</v>
+        <v>1.3146268803092573</v>
       </c>
       <c r="P10" s="27">
         <f>SUM(C10:L10)</f>
@@ -16032,15 +16017,15 @@
       </c>
       <c r="R10" s="20">
         <f t="shared" si="1"/>
-        <v>4.3766283920447222</v>
+        <v>5.0467318587892578</v>
       </c>
       <c r="S10" s="20">
         <f t="shared" si="2"/>
-        <v>838.37662839204472</v>
+        <v>839.04673185878926</v>
       </c>
       <c r="T10" s="26">
         <f t="shared" si="3"/>
-        <v>9.9854291137689941E-2</v>
+        <v>9.993410336574432E-2</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -16102,7 +16087,7 @@
       </c>
       <c r="O11" s="28">
         <f>SUM($C11:N11)*('CL quarter'!$N$35-1)</f>
-        <v>0.19224796426030891</v>
+        <v>0.40613154872852275</v>
       </c>
       <c r="P11" s="27">
         <f>SUM(C11:K11)</f>
@@ -16114,15 +16099,15 @@
       </c>
       <c r="R11" s="20">
         <f t="shared" si="1"/>
-        <v>2.5644353870843588</v>
+        <v>2.7783189715526078</v>
       </c>
       <c r="S11" s="20">
         <f t="shared" si="2"/>
-        <v>1768.5644353870844</v>
+        <v>1768.7783189715526</v>
       </c>
       <c r="T11" s="26">
         <f t="shared" si="3"/>
-        <v>0.20474235186236217</v>
+        <v>0.20476711263852196</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -16184,7 +16169,7 @@
       </c>
       <c r="O12" s="28">
         <f>SUM($C12:N12)*('CL quarter'!$N$32-1)</f>
-        <v>6.5941652585289043E-2</v>
+        <v>0.11340530008035751</v>
       </c>
       <c r="P12" s="27">
         <f>SUM(C12:J12)</f>
@@ -16196,15 +16181,15 @@
       </c>
       <c r="R12" s="20">
         <f t="shared" si="1"/>
-        <v>3.6372839198794509</v>
+        <v>3.6847475673745294</v>
       </c>
       <c r="S12" s="20">
         <f t="shared" si="2"/>
-        <v>822.63728391987945</v>
+        <v>822.68474756737453</v>
       </c>
       <c r="T12" s="26">
         <f t="shared" si="3"/>
-        <v>9.9077114768141572E-2</v>
+        <v>9.9082831213702816E-2</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -16266,7 +16251,7 @@
       </c>
       <c r="O13" s="28">
         <f>SUM($C13:N13)*('CL quarter'!$N$33-1)</f>
-        <v>0.30328297818259625</v>
+        <v>0.52254974491916006</v>
       </c>
       <c r="P13" s="27">
         <f>SUM(C13:I13)</f>
@@ -16278,15 +16263,15 @@
       </c>
       <c r="R13" s="20">
         <f t="shared" si="1"/>
-        <v>39.380650439904684</v>
+        <v>39.599917206641294</v>
       </c>
       <c r="S13" s="20">
         <f t="shared" si="2"/>
-        <v>1932.3806504399047</v>
+        <v>1932.5999172066413</v>
       </c>
       <c r="T13" s="26">
         <f t="shared" si="3"/>
-        <v>0.19987387778650234</v>
+        <v>0.19989655742724879</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -16348,7 +16333,7 @@
       </c>
       <c r="O14" s="28">
         <f>SUM($C14:N14)*('CL quarter'!$N$34-1)</f>
-        <v>0.74298705290643663</v>
+        <v>1.5154620156781522</v>
       </c>
       <c r="P14" s="27">
         <f>SUM(C14:H14)</f>
@@ -16360,15 +16345,15 @@
       </c>
       <c r="R14" s="20">
         <f t="shared" si="1"/>
-        <v>86.455162442424694</v>
+        <v>87.227637405196447</v>
       </c>
       <c r="S14" s="20">
         <f t="shared" si="2"/>
-        <v>966.45516244242469</v>
+        <v>967.22763740519645</v>
       </c>
       <c r="T14" s="26">
         <f t="shared" si="3"/>
-        <v>0.1039087369575771</v>
+        <v>0.1039917898511124</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -16430,7 +16415,7 @@
       </c>
       <c r="O15" s="28">
         <f>SUM($C15:N15)*('CL quarter'!$N$35-1)</f>
-        <v>0.18925354669378902</v>
+        <v>0.39980572130814007</v>
       </c>
       <c r="P15" s="27">
         <f>SUM(C15:G15)</f>
@@ -16442,15 +16427,15 @@
       </c>
       <c r="R15" s="20">
         <f t="shared" si="1"/>
-        <v>58.017613587324149</v>
+        <v>58.228165761938499</v>
       </c>
       <c r="S15" s="20">
         <f t="shared" si="2"/>
-        <v>1741.0176135873241</v>
+        <v>1741.2281657619385</v>
       </c>
       <c r="T15" s="26">
         <f t="shared" si="3"/>
-        <v>0.20691913639022155</v>
+        <v>0.20694416041858077</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -16512,7 +16497,7 @@
       </c>
       <c r="O16" s="28">
         <f>SUM($C16:N16)*('CL quarter'!$N$32-1)</f>
-        <v>5.9629993225964316E-2</v>
+        <v>0.10255061877367609</v>
       </c>
       <c r="P16" s="27">
         <f>SUM(C16:F16)</f>
@@ -16524,15 +16509,15 @@
       </c>
       <c r="R16" s="20">
         <f t="shared" si="1"/>
-        <v>97.89788160255398</v>
+        <v>97.940802228101688</v>
       </c>
       <c r="S16" s="20">
         <f t="shared" si="2"/>
-        <v>743.89788160255398</v>
+        <v>743.94080222810169</v>
       </c>
       <c r="T16" s="26">
         <f t="shared" si="3"/>
-        <v>9.6172964654499551E-2</v>
+        <v>9.6178513539508945E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -16594,7 +16579,7 @@
       </c>
       <c r="O17" s="28">
         <f>SUM($C17:N17)*('CL quarter'!$N$33-1)</f>
-        <v>0.24288919821538138</v>
+        <v>0.41849262141791443</v>
       </c>
       <c r="P17" s="27">
         <f>SUM(C17:E17)</f>
@@ -16606,15 +16591,15 @@
       </c>
       <c r="R17" s="20">
         <f t="shared" si="1"/>
-        <v>631.57906178856979</v>
+        <v>631.75466521177236</v>
       </c>
       <c r="S17" s="20">
         <f t="shared" si="2"/>
-        <v>1547.5790617885698</v>
+        <v>1547.7546652117724</v>
       </c>
       <c r="T17" s="26">
         <f t="shared" si="3"/>
-        <v>0.18221818695261624</v>
+        <v>0.18223886320637847</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -16676,7 +16661,7 @@
       </c>
       <c r="O18" s="28">
         <f>SUM($C18:N18)*('CL quarter'!$N$34-1)</f>
-        <v>0.79199783965580828</v>
+        <v>1.6154287450937292</v>
       </c>
       <c r="P18" s="27">
         <f>SUM(C18:D18)</f>
@@ -16688,15 +16673,15 @@
       </c>
       <c r="R18" s="20">
         <f t="shared" si="1"/>
-        <v>850.20691650597746</v>
+        <v>851.03034741141551</v>
       </c>
       <c r="S18" s="20">
         <f t="shared" si="2"/>
-        <v>1030.2069165059775</v>
+        <v>1031.0303474114155</v>
       </c>
       <c r="T18" s="26">
         <f t="shared" si="3"/>
-        <v>0.11846905663592197</v>
+        <v>0.11856374740241668</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -16758,7 +16743,7 @@
       </c>
       <c r="O19" s="28">
         <f>SUM($C19:N19)*('CL quarter'!$N$35-1)</f>
-        <v>0.19161205428565831</v>
+        <v>0.40478816335718498</v>
       </c>
       <c r="P19" s="27">
         <f>SUM(C19)</f>
@@ -16770,15 +16755,15 @@
       </c>
       <c r="R19" s="20">
         <f t="shared" si="1"/>
-        <v>1439.7144500850181</v>
+        <v>1439.9276261940895</v>
       </c>
       <c r="S19" s="20">
         <f t="shared" si="2"/>
-        <v>1762.7144500850181</v>
+        <v>1762.9276261940895</v>
       </c>
       <c r="T19" s="26">
         <f t="shared" si="3"/>
-        <v>0.20094783972697425</v>
+        <v>0.20097214160899332</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="16" x14ac:dyDescent="0.2">
@@ -16822,7 +16807,7 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="24">
         <f>SUM(R4:R19)</f>
-        <v>3217.5538322320922</v>
+        <v>3221.7190870688892</v>
       </c>
       <c r="S21" s="3"/>
     </row>
@@ -16838,8 +16823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02E2F9D-5EE6-4E52-93CB-1EC2C9946980}">
   <dimension ref="A1:AB35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O35" sqref="B20:O35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16980,7 +16965,7 @@
       </c>
       <c r="T3" s="33">
         <f>S3/'CL quarter IBNR'!S5</f>
-        <v>0.99984305215532276</v>
+        <v>0.99972961307704367</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17102,7 +17087,7 @@
       </c>
       <c r="T5" s="33">
         <f>S5/'CL quarter IBNR'!S7</f>
-        <v>0.99989129716711833</v>
+        <v>0.99977038866636225</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17163,7 +17148,7 @@
       </c>
       <c r="T6" s="33">
         <f>S6/'CL quarter IBNR'!S8</f>
-        <v>0.99991984115736754</v>
+        <v>0.99986215217868601</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17216,7 +17201,7 @@
       </c>
       <c r="R7" s="33">
         <f>Q7/'CL quarter IBNR'!R9</f>
-        <v>2.7326597043240635</v>
+        <v>2.2514103424864662</v>
       </c>
       <c r="S7" s="34">
         <f t="shared" si="0"/>
@@ -17224,7 +17209,7 @@
       </c>
       <c r="T7" s="33">
         <f>S7/'CL quarter IBNR'!S9</f>
-        <v>1.0009197671576269</v>
+        <v>1.0008062059186176</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17277,7 +17262,7 @@
       </c>
       <c r="R8" s="33">
         <f>Q8/'CL quarter IBNR'!R10</f>
-        <v>0.91394554019497987</v>
+        <v>0.79259213921454996</v>
       </c>
       <c r="S8" s="34">
         <f t="shared" si="0"/>
@@ -17285,7 +17270,7 @@
       </c>
       <c r="T8" s="33">
         <f>S8/'CL quarter IBNR'!S10</f>
-        <v>0.99955076468106341</v>
+        <v>0.99875247489913899</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17338,7 +17323,7 @@
       </c>
       <c r="R9" s="33">
         <f>Q9/'CL quarter IBNR'!R11</f>
-        <v>0.3899493841944493</v>
+        <v>0.35992987494922879</v>
       </c>
       <c r="S9" s="34">
         <f t="shared" si="0"/>
@@ -17346,7 +17331,7 @@
       </c>
       <c r="T9" s="33">
         <f>S9/'CL quarter IBNR'!S11</f>
-        <v>0.99911542075833837</v>
+        <v>0.99899460607783419</v>
       </c>
     </row>
     <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17399,7 +17384,7 @@
       </c>
       <c r="R10" s="33">
         <f>Q10/'CL quarter IBNR'!R12</f>
-        <v>1.0997216846719435</v>
+        <v>1.0855560460686038</v>
       </c>
       <c r="S10" s="34">
         <f t="shared" si="0"/>
@@ -17407,7 +17392,7 @@
       </c>
       <c r="T10" s="33">
         <f>S10/'CL quarter IBNR'!S12</f>
-        <v>1.0004409186007133</v>
+        <v>1.0003831995591965</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17460,7 +17445,7 @@
       </c>
       <c r="R11" s="33">
         <f>Q11/'CL quarter IBNR'!R13</f>
-        <v>1.1426931626909136</v>
+        <v>1.1363660122110826</v>
       </c>
       <c r="S11" s="34">
         <f t="shared" si="0"/>
@@ -17468,7 +17453,7 @@
       </c>
       <c r="T11" s="33">
         <f>S11/'CL quarter IBNR'!S13</f>
-        <v>1.0029079930803571</v>
+        <v>1.0027942062634276</v>
       </c>
     </row>
     <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17521,7 +17506,7 @@
       </c>
       <c r="R12" s="33">
         <f>Q12/'CL quarter IBNR'!R14</f>
-        <v>0.94846852036867513</v>
+        <v>0.94006902444333518</v>
       </c>
       <c r="S12" s="34">
         <f t="shared" si="0"/>
@@ -17529,7 +17514,7 @@
       </c>
       <c r="T12" s="33">
         <f>S12/'CL quarter IBNR'!S14</f>
-        <v>0.99539020265444533</v>
+        <v>0.994595235699405</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17582,7 +17567,7 @@
       </c>
       <c r="R13" s="33">
         <f>Q13/'CL quarter IBNR'!R15</f>
-        <v>0.82733495971449567</v>
+        <v>0.82434332890107531</v>
       </c>
       <c r="S13" s="34">
         <f t="shared" si="0"/>
@@ -17590,7 +17575,7 @@
       </c>
       <c r="T13" s="33">
         <f>S13/'CL quarter IBNR'!S15</f>
-        <v>0.99424611588697076</v>
+        <v>0.99412589001082308</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17643,7 +17628,7 @@
       </c>
       <c r="R14" s="33">
         <f>Q14/'CL quarter IBNR'!R16</f>
-        <v>1.0419020139179294</v>
+        <v>1.0414454209027668</v>
       </c>
       <c r="S14" s="34">
         <f t="shared" si="0"/>
@@ -17651,7 +17636,7 @@
       </c>
       <c r="T14" s="33">
         <f>S14/'CL quarter IBNR'!S16</f>
-        <v>1.0055143568746412</v>
+        <v>1.005456345128189</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17704,7 +17689,7 @@
       </c>
       <c r="R15" s="33">
         <f>Q15/'CL quarter IBNR'!R17</f>
-        <v>1.0829998037980855</v>
+        <v>1.0826987716358443</v>
       </c>
       <c r="S15" s="34">
         <f t="shared" si="0"/>
@@ -17712,7 +17697,7 @@
       </c>
       <c r="T15" s="33">
         <f>S15/'CL quarter IBNR'!S17</f>
-        <v>1.0338728660174856</v>
+        <v>1.0337555660225253</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
@@ -17765,7 +17750,7 @@
       </c>
       <c r="R16" s="33">
         <f>Q16/'CL quarter IBNR'!R18</f>
-        <v>0.88331438549843888</v>
+        <v>0.88245971754629149</v>
       </c>
       <c r="S16" s="34">
         <f t="shared" si="0"/>
@@ -17773,7 +17758,7 @@
       </c>
       <c r="T16" s="57">
         <f>S16/'CL quarter IBNR'!S18</f>
-        <v>0.90370195063100045</v>
+        <v>0.90298021036668863</v>
       </c>
       <c r="U16" s="56" t="s">
         <v>68</v>
@@ -17836,7 +17821,7 @@
       </c>
       <c r="R17" s="33">
         <f>Q17/'CL quarter IBNR'!R19</f>
-        <v>0.92309971600376717</v>
+        <v>0.92296305440900162</v>
       </c>
       <c r="S17" s="34">
         <f t="shared" si="0"/>
@@ -17844,7 +17829,7 @@
       </c>
       <c r="T17" s="57">
         <f>S17/'CL quarter IBNR'!S19</f>
-        <v>0.93719093295021305</v>
+        <v>0.93707760628065795</v>
       </c>
       <c r="U17" s="56" t="s">
         <v>67</v>
@@ -17886,12 +17871,12 @@
       </c>
       <c r="R19" s="33">
         <f>Q19/'CL quarter IBNR'!R21</f>
-        <v>0.94947906369003165</v>
+        <v>0.94825151338052571</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="35">
         <f>AVERAGE(T2:T17)</f>
-        <v>0.99203159248579165</v>
+        <v>0.99181773125928729</v>
       </c>
       <c r="U19" s="35" t="s">
         <v>52</v>
@@ -17938,7 +17923,7 @@
       </c>
       <c r="O25">
         <f>IF('CL quarter IBNR'!O9&gt;0,O7/'CL quarter IBNR'!O9,"")</f>
-        <v>3.0808713582153486</v>
+        <v>1.788108883416567</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.2">
@@ -18244,7 +18229,7 @@
       </c>
       <c r="O34">
         <f>IF('CL quarter IBNR'!O18&gt;0,O16/'CL quarter IBNR'!O18,"")</f>
-        <v>1.262629706710547</v>
+        <v>0.61903070812447303</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.2">
